--- a/Книга1 (2).xlsx
+++ b/Книга1 (2).xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GIT\Python and Django Full Stack Web Developer Bootcamp\tupaqyupanki.github.io\DOCUMENT_OBJECT_MODEL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GIT\my-projects\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -21,1452 +21,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="659" uniqueCount="482">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t>Магазин</t>
-  </si>
-  <si>
-    <t>Piccolo</t>
-  </si>
-  <si>
-    <t>Lapsi.ru</t>
-  </si>
-  <si>
-    <t>olant-shop.ru</t>
-  </si>
-  <si>
-    <t>akusherstvo.ru</t>
-  </si>
-  <si>
-    <t>silvercross.ru</t>
-  </si>
-  <si>
-    <t>Другие акции основных конкурентов</t>
-  </si>
-  <si>
-    <t>Бренд/товар</t>
-  </si>
-  <si>
-    <t>уточнение-цвет/модель/год</t>
-  </si>
-  <si>
-    <t>ссылка</t>
-  </si>
-  <si>
-    <t>карточка</t>
-  </si>
-  <si>
-    <t>корзина</t>
-  </si>
-  <si>
-    <t>промокод</t>
-  </si>
-  <si>
-    <t>Словами опиши какие есть еще акции не, например акции за покупку комплектом и т.д.</t>
-  </si>
-  <si>
-    <t>Silver Cross Slipover 2в1</t>
-  </si>
-  <si>
-    <t>Mulberry</t>
-  </si>
-  <si>
-    <t>https://piccolo-detki.ru/brend/silver-cross/silver-cross-detskaya-kolyaska-2-v-1-sleepover-3-mulberry/</t>
-  </si>
-  <si>
-    <t>https://silvercross.ru/catalog/silver-cross/baby-carriages/2-in-1/kolyaska-2-v-1-sleepover-mulberry</t>
-  </si>
-  <si>
-    <t>нет в наличии</t>
-  </si>
-  <si>
-    <t>Silver Cross Surf 2в1</t>
-  </si>
-  <si>
-    <t>Expedition</t>
-  </si>
-  <si>
-    <t>https://piccolo-detki.ru/kolyaski-spb/detskie-kolyaski/2-v-1/silver-cross-detskaya-kolyaska-2-v-1-surf-2-expedition/</t>
-  </si>
-  <si>
-    <t>129 000</t>
-  </si>
-  <si>
-    <t>https://silvercross.ru/catalog/silver-cross/baby-carriages/2-in-1/kolyaska-2-v-1-silver-cross-surf-expedition</t>
-  </si>
-  <si>
-    <t>Aston Martin Edition</t>
-  </si>
-  <si>
-    <t>https://piccolo-detki.ru/brend/silver-cross/silver-cross-detskaya-kolyaska-2-v-1-surf-2-aston-martin-edition/</t>
-  </si>
-  <si>
-    <t>350 000</t>
-  </si>
-  <si>
-    <t>https://silvercross.ru/catalog/silver-cross/baby-carriages/2-in-1/kolyaska-2-v-1-silver-cross-surf-aston-martin-edition</t>
-  </si>
-  <si>
-    <t>Rock</t>
-  </si>
-  <si>
-    <t>https://piccolo-detki.ru/kolyaski-spb/kupit-kolyasku/silver-cross/silver-cross-detskaya-kolyaska-2-v-1-surf-rock/</t>
-  </si>
-  <si>
-    <t>150 000</t>
-  </si>
-  <si>
-    <t>https://silvercross.ru/catalog/silver-cross/baby-carriages/2-in-1/kolyaska-2-v-1-silver-cross-surf-rock</t>
-  </si>
-  <si>
-    <t>Eclipse</t>
-  </si>
-  <si>
-    <t>https://piccolo-detki.ru/kolyaski-spb/kupit-kolyasku/silver-cross/silver-cross-detskaya-kolyaska-2-v-1-surf-2-eclipse/</t>
-  </si>
-  <si>
-    <t>160 000</t>
-  </si>
-  <si>
-    <t>https://silvercross.ru/catalog/silver-cross/baby-carriages/2-in-1/kolyaska-2-v-1-silver-cross-surf-eclipse</t>
-  </si>
-  <si>
-    <t>Silver Cross Wave 2в1</t>
-  </si>
-  <si>
-    <t>Charcoal</t>
-  </si>
-  <si>
-    <t>https://piccolo-detki.ru/kolyaski-spb/detskie-kolyaski/2-v-1/silver-cross-detskaya-kolyaska-2-v-1-wave-cvet-charcoal-2021/</t>
-  </si>
-  <si>
-    <t>140 000</t>
-  </si>
-  <si>
-    <t>https://silvercross.ru/catalog/silver-cross/baby-carriages/2-in-1/kolyaska-2-v-1-silver-cross-wave-charcoal</t>
-  </si>
-  <si>
-    <t>https://piccolo-detki.ru/kolyaski-spb/kupit-kolyasku/silver-cross/silver-cross-detskaya-kolyaska-2-v-1-wave-cvet-eclipse-2021/</t>
-  </si>
-  <si>
-    <t>https://silvercross.ru/catalog/silver-cross/baby-carriages/2-in-1/kolyaska-2-v-1-silver-cross-wave-eclipse</t>
-  </si>
-  <si>
-    <t>Zinc</t>
-  </si>
-  <si>
-    <t>https://piccolo-detki.ru/kolyaski-spb/detskie-kolyaski/2-v-1/silver-cross-detskaya-kolyaska-2-v-1-wave-cvet-zinc-2021/</t>
-  </si>
-  <si>
-    <t>https://silvercross.ru/catalog/silver-cross/baby-carriages/2-in-1/kolyaska-2-v-1-silver-cross-wave-zinc</t>
-  </si>
-  <si>
-    <t>Silver Cross Wave 2в1 погодки</t>
-  </si>
-  <si>
-    <t>https://piccolo-detki.ru/kolyaski-spb/detskie-kolyaski/dlya-dvoyni-i-pogodok/kolyaska-dlya-pogodok-2-v-1-wave-granite-granit-silver-cross/</t>
-  </si>
-  <si>
-    <t>https://silvercross.ru/catalog/silver-cross/baby-carriages/2-in-1/kolyaska-trost-2-v-1-silver-cross-wave-granite</t>
-  </si>
-  <si>
-    <t>нет одинаковых цветов на коляску и люльку с прогулочным блоком</t>
-  </si>
-  <si>
-    <t>Silver Cross Wave 2в1 двойня</t>
-  </si>
-  <si>
-    <t>https://piccolo-detki.ru/kolyaski-spb/detskie-kolyaski/dlya-dvoyni-i-pogodok/kolyaska-dlya-dvoyni-2-v-1-wave-granite-granit-silver-cross/</t>
-  </si>
-  <si>
-    <t>https://silvercross.ru/catalog/silver-cross/accessories/wave-coast/progulochnyiy-blok-dlya-2-go-rebenka-wave-granite</t>
-  </si>
-  <si>
-    <t>https://silvercross.ru/catalog/silver-cross/accessories/wave-coast/lyulka-dlya-2-go-rebenka-silver-cross-wave-granite</t>
-  </si>
-  <si>
-    <t>Silver Cross Pioneer 2в1</t>
-  </si>
-  <si>
-    <t>https://piccolo-detki.ru/brend/silver-cross/silver-cross-detskaya-kolyaska-2-v-1-pioneer-special-edition-expedition/</t>
-  </si>
-  <si>
-    <t>69 900</t>
-  </si>
-  <si>
-    <t>https://silvercross.ru/catalog/silver-cross/baby-carriages/2-in-1/kolyaska-2-v-1-silver-cross-pioneer-expedition-special-edition</t>
-  </si>
-  <si>
-    <t>Silver Cross Jet прогулка</t>
-  </si>
-  <si>
-    <t>Silver 2021</t>
-  </si>
-  <si>
-    <t>https://piccolo-detki.ru/kolyaski-spb/detskie-kolyaski/progulochnye-kolyaski-knizhki/silver-cross-progulochnaya-kolyaska-jet-silver-2021/</t>
-  </si>
-  <si>
-    <t>29 900</t>
-  </si>
-  <si>
-    <t>https://silvercross.ru/catalog/silver-cross/baby-carriages/walking/kolyaska-silver-cross-jet-silver</t>
-  </si>
-  <si>
-    <t>Mist 2021</t>
-  </si>
-  <si>
-    <t>https://piccolo-detki.ru/kolyaski-spb/detskie-kolyaski/dlya-puteshestviy/silver-cross-progulochnaya-kolyaska-jet-mist-2021/</t>
-  </si>
-  <si>
-    <t>36 000</t>
-  </si>
-  <si>
-    <t>https://silvercross.ru/catalog/silver-cross/baby-carriages/walking/kolyaska-silver-cross-jet-mist</t>
-  </si>
-  <si>
-    <t>Thule Sleek 2в1</t>
-  </si>
-  <si>
-    <t>Energy Red</t>
-  </si>
-  <si>
-    <t>https://piccolo-detki.ru/kolyaski-spb/detskie-kolyaski/dlya-dvoyni-i-pogodok/thule-kolyaska-2-v-1-sleek-bassinet-energy-red/</t>
-  </si>
-  <si>
-    <t>https://lapsi.ru/kolyaski/kolyaska-progulochnaya-thule-sleek/159609/</t>
-  </si>
-  <si>
-    <t>79 900</t>
-  </si>
-  <si>
-    <t>95 220</t>
-  </si>
-  <si>
-    <t>https://lapsi.ru/kolyaski/lyulka-dlya-kolyaski-thule-sleek-bassinet/159617/</t>
-  </si>
-  <si>
-    <t>25 900</t>
-  </si>
-  <si>
-    <t>Charcoal Grey</t>
-  </si>
-  <si>
-    <t>https://piccolo-detki.ru/kolyaski-spb/detskie-kolyaski/dlya-dvoyni-i-pogodok/thule-kolyaska-2-v-1-sleek-bassinet-shadow-grey</t>
-  </si>
-  <si>
-    <t>https://lapsi.ru/kolyaski/kolyaska-progulochnaya-thule-sleek/159608/</t>
-  </si>
-  <si>
-    <t>63 920</t>
-  </si>
-  <si>
-    <t>89 820</t>
-  </si>
-  <si>
-    <t>https://lapsi.ru/kolyaski/lyulka-dlya-kolyaski-thule-sleek-bassinet/159616/</t>
-  </si>
-  <si>
-    <t>Thule Sleek 2в1 погодки</t>
-  </si>
-  <si>
-    <t>Thule Sleek 2в1 двойня</t>
-  </si>
-  <si>
-    <t>Thule UrbanGlide прогулка</t>
-  </si>
-  <si>
-    <t>Black on Black</t>
-  </si>
-  <si>
-    <t>https://piccolo-detki.ru/brend/thule/thule-progulochnaya-kolyaska-urban-glide-2-black-on-black/</t>
-  </si>
-  <si>
-    <t>Mars</t>
-  </si>
-  <si>
-    <t>https://piccolo-detki.ru/kolyaski-spb/detskie-kolyaski/progulochnye-kolyaski-knizhki/thule-progulochnaya-kolyaska-urban-glide-2-mars/</t>
-  </si>
-  <si>
-    <t>Thule UrbanGlide Double прог.</t>
-  </si>
-  <si>
-    <t>Jet Black</t>
-  </si>
-  <si>
-    <t>https://piccolo-detki.ru/brend/thule/thule-progulochnaya-kolyaska-dlya-bliznecov-urban-glide-2-double/</t>
-  </si>
-  <si>
-    <t>Thule Spring прогулка</t>
-  </si>
-  <si>
-    <t>Olive, шасси Black</t>
-  </si>
-  <si>
-    <t>https://piccolo-detki.ru/kolyaski-spb/detskie-kolyaski/progulochnye-kolyaski-knizhki/thule-detskaya-progulochnaya-kolyaska-spring-2020-kapor-olive-shassi-black/</t>
-  </si>
-  <si>
-    <t>Teal Melange, шасси Aluminium</t>
-  </si>
-  <si>
-    <t>https://piccolo-detki.ru/kolyaski-spb/detskie-kolyaski/progulochnye-kolyaski-knizhki/thule-spring-2020-progulochnaya-kolyaska-s-kaporom-teal-melange-shassi-aluminium/</t>
-  </si>
-  <si>
-    <t>Tutis Zippy 2в1</t>
-  </si>
-  <si>
-    <t>Cocoa</t>
-  </si>
-  <si>
-    <t>https://piccolo-detki.ru/brend/tutis/tutis-kolyaska-2v1-zippy-new-2020-cocoa/</t>
-  </si>
-  <si>
-    <t>44 900</t>
-  </si>
-  <si>
-    <t>https://www.akusherstvo.ru/catalog/989268-2-v-1-zippy-new/2260975/</t>
-  </si>
-  <si>
-    <t>Tutis Uno 2в1 (% запр.)</t>
-  </si>
-  <si>
-    <t>Tutis Uno+ 2в1 (% запр.)</t>
-  </si>
-  <si>
-    <t>Tutis Zille 2в1 (% запр.)</t>
-  </si>
-  <si>
-    <t>Day 1 (белый)</t>
-  </si>
-  <si>
-    <t>https://piccolo-detki.ru/kolyaski-spb/detskie-kolyaski/2-v-1/tutis-zille-2020-kolyaska-2-v-1-day-1-belyy/</t>
-  </si>
-  <si>
-    <t>https://lapsi.ru/kolyaski/kolyaska-2-v-1-tutis-zille/180965/</t>
-  </si>
-  <si>
-    <t>52 900</t>
-  </si>
-  <si>
-    <t>Day 2 (серый/черный)</t>
-  </si>
-  <si>
-    <t>https://piccolo-detki.ru/brend/tutis/tutis-zille-2020-kolyaska-2-v-1-day-2-seryy-chernyy/</t>
-  </si>
-  <si>
-    <t>https://lapsi.ru/kolyaski/kolyaska-2-v-1-tutis-zille/180966/</t>
-  </si>
-  <si>
-    <t>Tutis Nanni 2в1</t>
-  </si>
-  <si>
-    <t>Темно-фиолетовый 2021</t>
-  </si>
-  <si>
-    <t>https://piccolo-detki.ru/kolyaski-spb/detskie-kolyaski/2-v-1/tutis-kolyaska-2-v-1-nanni-kozha-temno-fioletovyy-2021/</t>
-  </si>
-  <si>
-    <t>39 790</t>
-  </si>
-  <si>
-    <t>Tutis Mimi style 2в1</t>
-  </si>
-  <si>
-    <t>Turquoise</t>
-  </si>
-  <si>
-    <t>https://piccolo-detki.ru/brend/tutis/tutis-kolyaska-2-v-1-mimi-style-2021-turquoise/</t>
-  </si>
-  <si>
-    <t>38 430</t>
-  </si>
-  <si>
-    <t>https://www.akusherstvo.ru/catalog/440774-mimi-style-2-v-1/2816522/</t>
-  </si>
-  <si>
-    <t>Rose Quartz</t>
-  </si>
-  <si>
-    <t>https://piccolo-detki.ru/brend/tutis/tutis-kolyaska-2-v-1-mimi-style-2021-rose-quartz/</t>
-  </si>
-  <si>
-    <t>https://lapsi.ru/kolyaski/kolyaska-2-v-1-tutis-mimi-style-2021/193416/</t>
-  </si>
-  <si>
-    <t>https://www.akusherstvo.ru/catalog/440774-mimi-style-2-v-1/2854971/</t>
-  </si>
-  <si>
-    <t>Tutis Viva life 2в1 кожа/ткань</t>
-  </si>
-  <si>
-    <t>Espresso</t>
-  </si>
-  <si>
-    <t>https://piccolo-detki.ru/kolyaski-spb/kupit-kolyasku/tutis-zippy/tutis-kolyaska-2-v-1-viva-life-2020-tkan-espresso/</t>
-  </si>
-  <si>
-    <t>49 800</t>
-  </si>
-  <si>
-    <t>https://www.akusherstvo.ru/catalog/1114200-viva-life-2-v-1-tkankozha-2020/2588634/</t>
-  </si>
-  <si>
-    <t>Tutis Viva life 2в1 кожа</t>
-  </si>
-  <si>
-    <t>Cloud</t>
-  </si>
-  <si>
-    <t>https://piccolo-detki.ru/brend/tutis/tutis-kolyaska-2-v-1-viva-life-2020-kozha-cloud/</t>
-  </si>
-  <si>
-    <t>https://www.akusherstvo.ru/catalog/993763-viva-life-2-v-1-kozha/2588780/</t>
-  </si>
-  <si>
-    <t>51 500</t>
-  </si>
-  <si>
-    <t>Tutis Viva life Galaxy 2в1</t>
-  </si>
-  <si>
-    <t>Venus</t>
-  </si>
-  <si>
-    <t>https://piccolo-detki.ru/brend/tutis/tutis-viva-life-galaxy-kolyaska-2-v-1-2020-venus/</t>
-  </si>
-  <si>
-    <t>https://lapsi.ru/kolyaski/kolyaska-2-v-1-tutis-viva-life-galaxy/191053/</t>
-  </si>
-  <si>
-    <t>51 600</t>
-  </si>
-  <si>
-    <t>https://www.akusherstvo.ru/catalog/989218-kolyaska-2-v-1-viva-life-galaxy/2260882/</t>
-  </si>
-  <si>
-    <t>Sun</t>
-  </si>
-  <si>
-    <t>https://piccolo-detki.ru/brend/tutis/tutis-viva-life-galaxy-kolyaska-2-v-1-2020-sun/</t>
-  </si>
-  <si>
-    <t>https://lapsi.ru/kolyaski/kolyaska-2-v-1-tutis-viva-life-galaxy/191052/</t>
-  </si>
-  <si>
-    <t>https://www.akusherstvo.ru/catalog/989218-kolyaska-2-v-1-viva-life-galaxy/2260854/</t>
-  </si>
-  <si>
-    <t>Mercury</t>
-  </si>
-  <si>
-    <t>https://piccolo-detki.ru/kolyaski-spb/kupit-kolyasku/tutis-zippy/tutis-viva-life-galaxy-kolyaska-2-v-1-2020-mercury/</t>
-  </si>
-  <si>
-    <t>https://lapsi.ru/kolyaski/kolyaska-2-v-1-tutis-viva-life-galaxy/191049/</t>
-  </si>
-  <si>
-    <t>Tutis Viva life Majestic 2в1</t>
-  </si>
-  <si>
-    <t>Silver</t>
-  </si>
-  <si>
-    <t>https://piccolo-detki.ru/brend/tutis/tutis-kolyaska-2-v-1-viva-life-majestic-barhat-2020-silver/</t>
-  </si>
-  <si>
-    <t>https://www.akusherstvo.ru/catalog/839819-viva-life-majestic/2378437/</t>
-  </si>
-  <si>
-    <t>Tutis Aero Sport прогулка</t>
-  </si>
-  <si>
-    <t>Marine (Морской)</t>
-  </si>
-  <si>
-    <t>https://piccolo-detki.ru/kolyaski-spb/kupit-kolyasku/tutis-zippy/tutis-progulochnaya-kolyaska-aero-sport-cvet-marine/</t>
-  </si>
-  <si>
-    <t>https://lapsi.ru/kolyaski/kolyaska-progulochnaya-tutis-aero-sport/171509/</t>
-  </si>
-  <si>
-    <t>22 730</t>
-  </si>
-  <si>
-    <t>https://www.akusherstvo.ru/catalog/639361-progulochnaya-kolyaska-tutis-aero-sport/1410805/</t>
-  </si>
-  <si>
-    <t>UPPAbaby Cruz прогулка</t>
-  </si>
-  <si>
-    <t>Alice</t>
-  </si>
-  <si>
-    <t>https://piccolo-detki.ru/brend/uppababy/progulochnaya-kolyaska-uppababy-cruz-v2-2020-alice-nezhno-rozovyy/</t>
-  </si>
-  <si>
-    <t>https://lapsi.ru/kolyaski/kolyaska-progulochnaya-uppababy-cruz-v2/178373/</t>
-  </si>
-  <si>
-    <t>52 200</t>
-  </si>
-  <si>
-    <t>https://www.olant-shop.ru/product/14053025/</t>
-  </si>
-  <si>
-    <t>https://www.akusherstvo.ru/catalog/865057-cruz-v2/2006367/</t>
-  </si>
-  <si>
-    <t>Finn</t>
-  </si>
-  <si>
-    <t>https://piccolo-detki.ru/brend/uppababy/progulochnaya-kolyaska-uppababy-cruz-v2-2020-finn-lazurno-siniy/</t>
-  </si>
-  <si>
-    <t>https://lapsi.ru/kolyaski/kolyaska-progulochnaya-uppababy-cruz-v2/178371/</t>
-  </si>
-  <si>
-    <t>https://www.olant-shop.ru/product/14053023/</t>
-  </si>
-  <si>
-    <t>https://www.akusherstvo.ru/catalog/865057-cruz-v2/2006363/</t>
-  </si>
-  <si>
-    <t>UPPAbaby Cruz 2в1</t>
-  </si>
-  <si>
-    <t>https://piccolo-detki.ru/kolyaski-spb/detskie-kolyaski/2-v-1/uppababy-cruz-v2-kolyaska-2-v-1-2020-alice-nezhno-rozovyy/</t>
-  </si>
-  <si>
-    <t>74 200</t>
-  </si>
-  <si>
-    <t>https://www.olant-shop.ru/product/14116145/</t>
-  </si>
-  <si>
-    <t>80 000</t>
-  </si>
-  <si>
-    <t>https://lapsi.ru/kolyaski/lyulka-uppababy-dlya-kolyaski-cruz-i-vista-2018/178374/</t>
-  </si>
-  <si>
-    <t>https://www.akusherstvo.ru/catalog/865106-lyulka-uppababy-dlya-kolyaski-cruz-i-vista/2006529/</t>
-  </si>
-  <si>
-    <t>https://piccolo-detki.ru/kolyaski-spb/detskie-kolyaski/2-v-1/uppababy-cruz-v2-kolyaska-2-v-1-2020-finn-lazurno-siniy/</t>
-  </si>
-  <si>
-    <t>https://www.olant-shop.ru/product/14116129/</t>
-  </si>
-  <si>
-    <t>https://lapsi.ru/kolyaski/lyulka-uppababy-dlya-kolyaski-cruz-i-vista-2018/178376/</t>
-  </si>
-  <si>
-    <t>UPPAbaby Vista 2в1</t>
-  </si>
-  <si>
-    <t>STELLA</t>
-  </si>
-  <si>
-    <t>https://piccolo-detki.ru/kolyaski-spb/detskie-kolyaski/2-v-1/uppababy-vista-v2-kolyaska-2-v-1-2020-stella-serebristyy-melanzh/</t>
-  </si>
-  <si>
-    <t>https://lapsi.ru/kolyaski/kolyaska-2-v-1-uppababy-vista-v2/183283/</t>
-  </si>
-  <si>
-    <t>https://www.olant-shop.ru/product/14187007/</t>
-  </si>
-  <si>
-    <t>https://www.akusherstvo.ru/catalog/990298-kolyaska-2-v-1-vista-v2-stella/2263126/</t>
-  </si>
-  <si>
-    <t>Bryce</t>
-  </si>
-  <si>
-    <t>https://piccolo-detki.ru/brend/uppababy/uppababy-vista-v2-kolyaska-2-v-1-2020-bryce-zhemchuzhno-belyy/</t>
-  </si>
-  <si>
-    <t>https://www.olant-shop.ru/product/14053003/</t>
-  </si>
-  <si>
-    <t>Emmett</t>
-  </si>
-  <si>
-    <t>https://piccolo-detki.ru/kolyaski-spb/detskie-kolyaski/2-v-1/uppababy-vista-v2-kolyaska-2-v-1-2020-emmett-zelenyy-melanzh/</t>
-  </si>
-  <si>
-    <t>https://lapsi.ru/kolyaski/kolyaska-2-v-1-uppababy-vista-v2/180609/</t>
-  </si>
-  <si>
-    <t>https://www.olant-shop.ru/product/14053004/</t>
-  </si>
-  <si>
-    <t>https://www.akusherstvo.ru/catalog/865045-vista-v2-2-v-1/2006322/</t>
-  </si>
-  <si>
-    <t>UPPAbaby Vista 2в1 погодки</t>
-  </si>
-  <si>
-    <t>https://piccolo-detki.ru/kolyaski-spb/detskie-kolyaski/dlya-dvoyni-i-pogodok/uppababy-vista-v2-kolyaska-dlya-pogodok-2020-stella-serebristyy-melanzh/</t>
-  </si>
-  <si>
-    <t>98 000</t>
-  </si>
-  <si>
-    <t>https://lapsi.ru/kolyaski/dopolnitelnoe-sidene-dlya-vtorogo-rebenka-uppababy-vista-v2/183306/</t>
-  </si>
-  <si>
-    <t>https://www.olant-shop.ru/product/14187005/</t>
-  </si>
-  <si>
-    <t>https://piccolo-detki.ru/kolyaski-spb/detskie-kolyaski/dlya-dvoyni-i-pogodok/uppababy-vista-v2-kolyaska-dlya-pogodok-2020-bryce-zhemchuzhno-belyy/</t>
-  </si>
-  <si>
-    <t>https://lapsi.ru/kolyaski/kolyaska-2-v-1-uppababy-vista-v2/180608/</t>
-  </si>
-  <si>
-    <t>https://lapsi.ru/kolyaski/dopolnitelnoe-sidene-dlya-vtorogo-rebenka-uppababy-vista-v2/181255/</t>
-  </si>
-  <si>
-    <t>https://www.olant-shop.ru/product/14053770/</t>
-  </si>
-  <si>
-    <t>https://piccolo-detki.ru/kolyaski-spb/detskie-kolyaski/dlya-dvoyni-i-pogodok/uppababy-vista-v2-kolyaska-dlya-pogodok-2020-emmett-zelenyy-melanzh/</t>
-  </si>
-  <si>
-    <t>https://lapsi.ru/kolyaski/dopolnitelnoe-sidene-dlya-vtorogo-rebenka-uppababy-vista-v2/176759/</t>
-  </si>
-  <si>
-    <t>UPPAbaby Vista 2в1 двойня</t>
-  </si>
-  <si>
-    <t>https://piccolo-detki.ru/kolyaski-spb/detskie-kolyaski/dlya-dvoyni-i-pogodok/uppababy-vista-v2-kolyaska-dlya-bliznecov-i-dvoyni-2020-stella-serebristyy-melanzh/</t>
-  </si>
-  <si>
-    <t>120 000</t>
-  </si>
-  <si>
-    <t>https://lapsi.ru/kolyaski/lyulka-uppababy-dlya-kolyaski-cruz-i-vista-2018/183305/</t>
-  </si>
-  <si>
-    <t>https://www.olant-shop.ru/product/14187006/</t>
-  </si>
-  <si>
-    <t>https://piccolo-detki.ru/kolyaski-spb/detskie-kolyaski/dlya-dvoyni-i-pogodok/uppababy-vista-v2-kolyaska-dlya-bliznecov-i-dvoyni-2020-bryce-zhemchuzhno-belyy/</t>
-  </si>
-  <si>
-    <t>https://lapsi.ru/kolyaski/lyulka-uppababy-dlya-kolyaski-cruz-i-vista-2018/178375/</t>
-  </si>
-  <si>
-    <t>https://www.olant-shop.ru/product/14053029/</t>
-  </si>
-  <si>
-    <t>UPPAbaby Minu прогулка</t>
-  </si>
-  <si>
-    <t>Ryan</t>
-  </si>
-  <si>
-    <t>https://piccolo-detki.ru/kolyaski-spb/detskie-kolyaski/dlya-puteshestviy/progulochnaya-kolyaska-uppababy-minu-2018-ryan-goluboy/</t>
-  </si>
-  <si>
-    <t>https://lapsi.ru/kolyaski/progulochnaya-kolyaska-uppababy-minu/67021/</t>
-  </si>
-  <si>
-    <t>35 000</t>
-  </si>
-  <si>
-    <t>https://www.olant-shop.ru/product/10411837/</t>
-  </si>
-  <si>
-    <t>https://www.akusherstvo.ru/catalog/528146-progulochnaya-kolyaska-uppababy-minu-2018/1133426/</t>
-  </si>
-  <si>
-    <t>Valco Snap4 прогулка</t>
-  </si>
-  <si>
-    <t>Snap 4, Ocean Blue</t>
-  </si>
-  <si>
-    <t>https://piccolo-detki.ru/kolyaski-spb/kupit-kolyasku/kolyaski-valco-baby-snap/valco-baby-snap-4-cvet-ocean-blue-detskaya-kolyaska-progulochnaya/</t>
-  </si>
-  <si>
-    <t>https://lapsi.ru/kolyaski/kolyaska-progulochnaya-valco-baby-snap-4-valko-beybi-snep-4-dove-grey/57944/</t>
-  </si>
-  <si>
-    <t>18 700</t>
-  </si>
-  <si>
-    <t>https://www.olant-shop.ru/product/9515961/</t>
-  </si>
-  <si>
-    <t>18 699</t>
-  </si>
-  <si>
-    <t>https://www.akusherstvo.ru/catalog/23809-progulochnaya-kolyaska-valco-baby-snap-4/955261/</t>
-  </si>
-  <si>
-    <t>Snap 4, Coal Black</t>
-  </si>
-  <si>
-    <t>https://piccolo-detki.ru/kolyaski-spb/detskie-kolyaski/progulochnye-kolyaski-knizhki/valco-baby-progulochnaya-kolyaska-snap-4-cvet-coal-black-chernyy/</t>
-  </si>
-  <si>
-    <t>https://lapsi.ru/kolyaski/kolyaska-progulochnaya-valco-baby-snap-4-valko-beybi-snep-4-dove-grey/178051/</t>
-  </si>
-  <si>
-    <t>https://www.olant-shop.ru/product/14097025/</t>
-  </si>
-  <si>
-    <t>https://www.akusherstvo.ru/catalog/23809-progulochnaya-kolyaska-valco-baby-snap-4/2089903/</t>
-  </si>
-  <si>
-    <t>Snap 4 Ultra Dove Grey</t>
-  </si>
-  <si>
-    <t>https://piccolo-detki.ru/kolyaski-spb/kupit-kolyasku/kolyaski-valco-baby-snap/valco-baby-progulochnaya-kolyaska-snap-4-ultra-2018-cvet-dove-grey/</t>
-  </si>
-  <si>
-    <t>https://lapsi.ru/kolyaski/progulochnaya-kolyaska-valco-baby-snap-4-ultra/61346/</t>
-  </si>
-  <si>
-    <t>26 300</t>
-  </si>
-  <si>
-    <t>https://www.olant-shop.ru/product/9396015/</t>
-  </si>
-  <si>
-    <t>26 299</t>
-  </si>
-  <si>
-    <t>https://www.akusherstvo.ru/catalog/31071-progulochnaya-kolyaska-valco-baby-snap-4-ultra/893994/</t>
-  </si>
-  <si>
-    <t>Valco Snap4 2в1</t>
-  </si>
-  <si>
-    <t>https://piccolo-detki.ru/kolyaski-spb/kupit-kolyasku/kolyaski-valco-baby-snap/valco-baby-detskaya-kolyaska-2-v-1-snap-4-ocean-blue/</t>
-  </si>
-  <si>
-    <t>https://lapsi.ru/kolyaski/kolyaska-2-v-1-valco-baby-snap-4-ocean-blue-/</t>
-  </si>
-  <si>
-    <t>https://www.olant-shop.ru/product/12622669/</t>
-  </si>
-  <si>
-    <t>29 398</t>
-  </si>
-  <si>
-    <t>https://www.akusherstvo.ru/catalog/229489-lyulka-valco-baby-external-bassinet-dlya-snapsnap-4/1318460/</t>
-  </si>
-  <si>
-    <t>Snap 4, Dove Grey</t>
-  </si>
-  <si>
-    <t>https://piccolo-detki.ru/kolyaski-spb/kupit-kolyasku/kolyaski-valco-baby-snap/valco-baby-detskaya-kolyaska-2-v-1-snap-4-dove-grey/</t>
-  </si>
-  <si>
-    <t>https://lapsi.ru/kolyaski/kolyaska-2-v-1-valco-baby-snap-4-dove-grey/</t>
-  </si>
-  <si>
-    <t>29 400</t>
-  </si>
-  <si>
-    <t>Snap 4 Ultra Cool Grey</t>
-  </si>
-  <si>
-    <t>https://piccolo-detki.ru/kolyaski-spb/detskie-kolyaski/2-v-1/valco-baby-detskaya-kolyaska-2-v-1-snap-ultra-4-cool-grey/</t>
-  </si>
-  <si>
-    <t>https://lapsi.ru/kolyaski/kolyaska-2-v-1-valco-baby-snap-4-ultra-cool-grey/</t>
-  </si>
-  <si>
-    <t>37 300</t>
-  </si>
-  <si>
-    <t>https://www.olant-shop.ru/product/9396013/</t>
-  </si>
-  <si>
-    <t>37 298</t>
-  </si>
-  <si>
-    <t>https://www.olant-shop.ru/product/12596967/</t>
-  </si>
-  <si>
-    <t>https://piccolo-detki.ru/kolyaski-spb/detskie-kolyaski/2-v-1/valco-baby-detskaya-kolyaska-2-v-1-snap-ultra-4-dove-grey/</t>
-  </si>
-  <si>
-    <t>https://www.olant-shop.ru/product/12596968/</t>
-  </si>
-  <si>
-    <t>Valco Snap4 trend прогулка</t>
-  </si>
-  <si>
-    <t>https://piccolo-detki.ru/kolyaski-spb/kupit-kolyasku/kolyaski-valco-baby-snap/valco-baby-progulochnaya-kolyaska-snap-trend-4-charcoal/</t>
-  </si>
-  <si>
-    <t>https://lapsi.ru/kolyaski/progulochnaya-kolyaska-valco-baby-snap-4-trend/57921/</t>
-  </si>
-  <si>
-    <t>29 500</t>
-  </si>
-  <si>
-    <t>https://www.olant-shop.ru/product/8291949/</t>
-  </si>
-  <si>
-    <t>29 499</t>
-  </si>
-  <si>
-    <t>https://www.akusherstvo.ru/catalog/319739-progulochnaya-kolyaska-valco-baby-snap-4-trend/588114/</t>
-  </si>
-  <si>
-    <t>Valco Snap4 trend 2в1</t>
-  </si>
-  <si>
-    <t>Denim</t>
-  </si>
-  <si>
-    <t>https://piccolo-detki.ru/kolyaski-spb/kupit-kolyasku/kolyaski-valco-baby-snap/valco-baby-kolyaska-2-v-1-snap-trend-denim/</t>
-  </si>
-  <si>
-    <t>https://lapsi.ru/kolyaski/kolyaska-2-v-1-valco-baby-snap-4-trend-denim/</t>
-  </si>
-  <si>
-    <t>42 600</t>
-  </si>
-  <si>
-    <t>https://www.olant-shop.ru/product/12622148/</t>
-  </si>
-  <si>
-    <t>https://www.akusherstvo.ru/catalog/319739-progulochnaya-kolyaska-valco-baby-snap-4-trend/588119/</t>
-  </si>
-  <si>
-    <t>41 398</t>
-  </si>
-  <si>
-    <t>https://www.akusherstvo.ru/catalog/649799-lyulka-valco-baby-external-bassinet-dlya-snap-trend-snap-4-trend-snap-4-ultra-trend/</t>
-  </si>
-  <si>
-    <t>Valco Snap4 ultra trend прог.</t>
-  </si>
-  <si>
-    <t>Grey Marle</t>
-  </si>
-  <si>
-    <t>https://piccolo-detki.ru/kolyaski-spb/kupit-kolyasku/kolyaski-valco-baby-snap/valco-baby-progulochnaya-kolyaska-snap-ultra-trend-2018-grey-marle/</t>
-  </si>
-  <si>
-    <t>https://lapsi.ru/kolyaski/progulochnaya-kolyaska-valco-baby-snap-4-ultra-trend/91779/</t>
-  </si>
-  <si>
-    <t>37 500</t>
-  </si>
-  <si>
-    <t>https://www.olant-shop.ru/product/12421595/</t>
-  </si>
-  <si>
-    <t>37 499</t>
-  </si>
-  <si>
-    <t>https://www.akusherstvo.ru/catalog/611133-progulochnaya-kolyaska-valco-baby-snap-4-ultra-trend/1322690/</t>
-  </si>
-  <si>
-    <t>Valco Snap4 ultra trend 2в1</t>
-  </si>
-  <si>
-    <t>https://piccolo-detki.ru/kolyaski-spb/kupit-kolyasku/kolyaski-valco-baby-snap/valco-baby-kolyaska-2-v-1-snap-ultra-trend-2018-denim/</t>
-  </si>
-  <si>
-    <t>https://lapsi.ru/kolyaski/kolyaska-2-v-1-valco-baby-snap-4-ultra-trend-denim-/</t>
-  </si>
-  <si>
-    <t>50 600</t>
-  </si>
-  <si>
-    <t>https://www.olant-shop.ru/product/12623307/</t>
-  </si>
-  <si>
-    <t>50 597</t>
-  </si>
-  <si>
-    <t>https://www.akusherstvo.ru/catalog/611133-progulochnaya-kolyaska-valco-baby-snap-4-ultra-trend/</t>
-  </si>
-  <si>
-    <t>49 398</t>
-  </si>
-  <si>
-    <t>Valco Snap4 Duo прогулка</t>
-  </si>
-  <si>
-    <t>Fire Red</t>
-  </si>
-  <si>
-    <t>https://piccolo-detki.ru/brend/valco-baby/valco-baby-snap-duo-cvet-krasnyy-fire-red-kolyaska-dlya-dvoyni-progulochnaya/</t>
-  </si>
-  <si>
-    <t>https://lapsi.ru/kolyaski/kolyaska-progulochnaya-dlya-dvoyni-valco-baby-snap-duo/72248/</t>
-  </si>
-  <si>
-    <t>34 900</t>
-  </si>
-  <si>
-    <t>https://www.olant-shop.ru/product/9395977/</t>
-  </si>
-  <si>
-    <t>34 899</t>
-  </si>
-  <si>
-    <t>https://www.akusherstvo.ru/catalog/26199-valco-baby-kolyaska-dlya-dvojni-snap-duo/901319/</t>
-  </si>
-  <si>
-    <t>Trend, Denim</t>
-  </si>
-  <si>
-    <t>https://piccolo-detki.ru/kolyaski-spb/kupit-kolyasku/kolyaski-valco-baby-snap/valco-baby-progulochnaya-kolyaska-dlya-dvoyni-snap-duo-trend-denim/</t>
-  </si>
-  <si>
-    <t>https://www.akusherstvo.ru/catalog/611163-progulochnaya-kolyaska-valco-baby-snap-duo-trend/1322716/</t>
-  </si>
-  <si>
-    <t>42 299</t>
-  </si>
-  <si>
-    <t>Valco Snap4 Duo 2в1</t>
-  </si>
-  <si>
-    <t>https://piccolo-detki.ru/kolyaski-spb/kupit-kolyasku/kolyaski-valco-baby-snap/valco-baby-kolyaska-dlya-bliznecov-i-pogodok-2-v-1-snap-duo-fire-red/</t>
-  </si>
-  <si>
-    <t>https://lapsi.ru/kolyaski/kolyaska-2-v-1-dlya-dvoyni-valco-baby-snap-duo-fire-red/</t>
-  </si>
-  <si>
-    <t>57 700</t>
-  </si>
-  <si>
-    <t>56 297</t>
-  </si>
-  <si>
-    <t>https://www.olant-shop.ru/product/12596964/</t>
-  </si>
-  <si>
-    <t>https://www.akusherstvo.ru/catalog/229501-lyulka-valco-baby-external-bassinet-dlya-snap-duo/1401739/</t>
-  </si>
-  <si>
-    <t>Snap Duo Trend, Denim</t>
-  </si>
-  <si>
-    <t>https://piccolo-detki.ru/brend/valco-baby/valco-baby-progulochnaya-kolyaska-dlya-dvoyni-snap-duo-trend-denim/</t>
-  </si>
-  <si>
-    <t>66 097</t>
-  </si>
-  <si>
-    <t>https://lapsi.ru/kolyaski/kolyaska-2-v-1-dlya-dvoyni-valco-baby-snap-duo-trend-denim/</t>
-  </si>
-  <si>
-    <t>68 500</t>
-  </si>
-  <si>
-    <t>https://piccolo-detki.ru/brend/valco-baby/lyulka-dlya-kolyaski-valco-baby-snap-duo-trend-denim/</t>
-  </si>
-  <si>
-    <t>https://www.akusherstvo.ru/catalog/651721-external-bassinet-dlya-snap-duo-trend/1435064/</t>
-  </si>
-  <si>
-    <t>Другие товары:</t>
-  </si>
-  <si>
-    <t>4moms MamaRoo</t>
-  </si>
-  <si>
-    <t>Мультиплюш</t>
-  </si>
-  <si>
-    <t>https://piccolo-detki.ru/novorozhdennyj-kupit/shezlongi-detskie/4moms-mamaroo-4.0-elektrokacheli-multiplyush/</t>
-  </si>
-  <si>
-    <t>https://lapsi.ru/detskaya_komnata/elektronnoe-kreslo-kachalka-4moms-mamaroo-4-0/62553/</t>
-  </si>
-  <si>
-    <t>https://www.olant-shop.ru/product/9301211/</t>
-  </si>
-  <si>
-    <t>https://www.akusherstvo.ru/catalog/413059-kreslo-kachalka-mamaroo-4-0/829479/</t>
-  </si>
-  <si>
-    <t>4moms Sleep</t>
-  </si>
-  <si>
-    <t>https://piccolo-detki.ru/brend/4moms/4moms-kolybel-mamaroo-sleep/?q=4moms%20mamaroo</t>
-  </si>
-  <si>
-    <t>https://lapsi.ru/detskaya_komnata/kolybel-4moms-mamaroo-sleep/185337/</t>
-  </si>
-  <si>
-    <t>34 200</t>
-  </si>
-  <si>
-    <t>https://www.olant-shop.ru/product/14217521/</t>
-  </si>
-  <si>
-    <t>https://www.akusherstvo.ru/catalog/1015748-kolybel-4moms-mamaroo-sleep/</t>
-  </si>
-  <si>
-    <t>RedCastle кокон</t>
-  </si>
-  <si>
-    <t>https://piccolo-detki.ru/novorozhdennyj-kupit/matrasiki-v-krovatku/matras-kokon-dlya-novorozhdennogo-red-castle-cocoonababy/?q=red%20castle</t>
-  </si>
-  <si>
-    <t>https://lapsi.ru/detskaya_komnata/ergonomicheskiy-matrasik-red-castle-cocoonababy-t3-0445166ru/62561/</t>
-  </si>
-  <si>
-    <t>9 900</t>
-  </si>
-  <si>
-    <t>https://www.akusherstvo.ru/catalog/7074-matras-red-castle-kokon-cocoonababy/</t>
-  </si>
-  <si>
-    <t>10 299</t>
-  </si>
-  <si>
-    <t>Fox</t>
-  </si>
-  <si>
-    <t>https://piccolo-detki.ru/brend/red-castle/red-castle-matras-kokon-dlya-novorozhdennogo-cocoonababy-fox-lisa/</t>
-  </si>
-  <si>
-    <t>https://lapsi.ru/detskaya_komnata/ergonomicheskiy-matrasik-red-castle-cocoonababy-t3-0445166ru/187790/</t>
-  </si>
-  <si>
-    <t>11 500</t>
-  </si>
-  <si>
-    <t>Maxi-Cosi Citi</t>
-  </si>
-  <si>
-    <t>River Blue</t>
-  </si>
-  <si>
-    <t>https://piccolo-detki.ru/brend/maxi-cosi/maxi-cosi-citi-cvet-river-blue-avtolyulka-gruppa-0-do-12-mes/</t>
-  </si>
-  <si>
-    <t>https://lapsi.ru/avtokresla/avtokreslo-0-maxi-cosi-citi/62720/</t>
-  </si>
-  <si>
-    <t>https://www.olant-shop.ru/product/14166719/</t>
-  </si>
-  <si>
-    <t>https://www.akusherstvo.ru/catalog/8533-avtokreslo-maxi-cosi-citi/</t>
-  </si>
-  <si>
-    <t>Earth Brown</t>
-  </si>
-  <si>
-    <t>https://piccolo-detki.ru/brend/maxi-cosi/maxi-cosi-citi-cvet-earth-brown-avtolyulka-gruppa-0-do-12-mes/</t>
-  </si>
-  <si>
-    <t>10 550</t>
-  </si>
-  <si>
-    <t>https://lapsi.ru/avtokresla/avtokreslo-0-maxi-cosi-citi/62707/</t>
-  </si>
-  <si>
-    <t>https://www.olant-shop.ru/product/14166718/</t>
-  </si>
-  <si>
-    <t>https://www.akusherstvo.ru/catalog/8533-avtokreslo-maxi-cosi-citi/198735/</t>
-  </si>
-  <si>
-    <t>Maxi-Cosi CabrioFix</t>
-  </si>
-  <si>
-    <t>Essential Blue</t>
-  </si>
-  <si>
-    <t>https://piccolo-detki.ru/detskie-avtokresla/gruppi-autokresel/autokresla-gruppa-0-13-kg-avtolyulki/maxi-cosi-cabriofix-cvet-essential-blue-avtolyulka-gruppa-0-do-12-mes/</t>
-  </si>
-  <si>
-    <t>https://lapsi.ru/avtokresla/avtokreslo-0-maxi-cosi-cabriofix/176308/</t>
-  </si>
-  <si>
-    <t>13 500</t>
-  </si>
-  <si>
-    <t>https://www.olant-shop.ru/product/14137959/</t>
-  </si>
-  <si>
-    <t>https://www.akusherstvo.ru/catalog/8531-avtokreslo-maxi-cosi-cabrio-fix/1939387/</t>
-  </si>
-  <si>
-    <t>Maxi-Cosi Pebble</t>
-  </si>
-  <si>
-    <t>Frequency Black</t>
-  </si>
-  <si>
-    <t>https://piccolo-detki.ru/detskie-avtokresla/brendi/maxi-cosi/maxi-cosi-pebble-pro-pebble-plus-cvet-frequency-black-avtolyulka-gruppa-0-do-12-mes/</t>
-  </si>
-  <si>
-    <t>https://lapsi.ru/avtokresla/avtokreslo-0-maxi-cosi-pebble-pro/167169/</t>
-  </si>
-  <si>
-    <t>23 900</t>
-  </si>
-  <si>
-    <t>https://www.olant-shop.ru/product/13558466/</t>
-  </si>
-  <si>
-    <t>https://www.akusherstvo.ru/catalog/759130-pebble-pro/1712651/</t>
-  </si>
-  <si>
-    <t>https://piccolo-detki.ru/detskie-avtokresla/brendi/maxi-cosi/maxi-cosi-pebble-plus-pebble-pro-cvet-essential-blue-avtolyulka-gruppa-0-do-12-mes/</t>
-  </si>
-  <si>
-    <t>https://lapsi.ru/avtokresla/avtokreslo-0-maxi-cosi-pebble-pro-sale/177022/</t>
-  </si>
-  <si>
-    <t>https://www.olant-shop.ru/product/14166722/</t>
-  </si>
-  <si>
-    <t>https://www.akusherstvo.ru/catalog/759130-pebble-pro/?picture_id=2083610</t>
-  </si>
-  <si>
-    <t>Maxi-Cosi Pearl</t>
-  </si>
-  <si>
-    <t>Scribble Black</t>
-  </si>
-  <si>
-    <t>https://piccolo-detki.ru/brend/maxi-cosi/avtokreslo-maxi-cosi-pearl-smart-gruppa-1-6-mes-4-let-scribble-black/</t>
-  </si>
-  <si>
-    <t>https://lapsi.ru/avtokresla/avtokreslo-1-maxi-cosi-pearl-smart-i-size/177026/</t>
-  </si>
-  <si>
-    <t>21 800</t>
-  </si>
-  <si>
-    <t>nomad red</t>
-  </si>
-  <si>
-    <t>https://www.olant-shop.ru/product/13556967/</t>
-  </si>
-  <si>
-    <t>https://www.akusherstvo.ru/catalog/759286-pearl-smart/1712908/</t>
-  </si>
-  <si>
-    <t>Cybex AtonM</t>
-  </si>
-  <si>
-    <t>Premium Black</t>
-  </si>
-  <si>
-    <t>https://piccolo-detki.ru/detskie-avtokresla/brendi/cybex/cybex-avtokreslo-kategorii-0-0-13-kg-aton-m-i-size-2019-premium-black/</t>
-  </si>
-  <si>
-    <t>https://lapsi.ru/avtokresla/avtokreslo-0-cybex-aton-m-i-size/111306/</t>
-  </si>
-  <si>
-    <t>22 690</t>
-  </si>
-  <si>
-    <t>https://www.olant-shop.ru/product/13040637/</t>
-  </si>
-  <si>
-    <t>Soho Grey</t>
-  </si>
-  <si>
-    <t>https://piccolo-detki.ru/brend/cybex/cybex-avtokreslo-kategorii-0-0-13-kg-aton-m-i-size-soho-grey/</t>
-  </si>
-  <si>
-    <t>https://lapsi.ru/avtokresla/avtokreslo-0-cybex-aton-m-i-size/195450/</t>
-  </si>
-  <si>
-    <t>https://www.olant-shop.ru/product/14319887/</t>
-  </si>
-  <si>
-    <t>18 180</t>
-  </si>
-  <si>
-    <t>https://www.akusherstvo.ru/catalog/658780-avtokreslo-cybex-aton-m-i-size-premium/2536936/</t>
-  </si>
-  <si>
-    <t>21 755</t>
-  </si>
-  <si>
-    <t>Fancy Pink</t>
-  </si>
-  <si>
-    <t>https://piccolo-detki.ru/brend/cybex/cybex-avtokreslo-kategorii-0-0-13-kg-aton-m-i-size-2019-fancy-pink/</t>
-  </si>
-  <si>
-    <t>https://lapsi.ru/avtokresla/avtokreslo-0-cybex-aton-m-i-size/145847/</t>
-  </si>
-  <si>
-    <t>https://www.akusherstvo.ru/catalog/658780-avtokreslo-cybex-aton-m-i-size-premium/1476145/</t>
-  </si>
-  <si>
-    <t>Cybex SironaM</t>
-  </si>
-  <si>
-    <t>Sirona M2 i-size, Passion Pink</t>
-  </si>
-  <si>
-    <t>https://piccolo-detki.ru/brend/cybex/cybex-avtokreslo-sirona-m2-i-size-passion-pink-gruppa-0-1/</t>
-  </si>
-  <si>
-    <t>https://www.akusherstvo.ru/catalog/343195-avtokreslo-cybex-sirona-m2-i-size-bez-bazy/</t>
-  </si>
-  <si>
-    <t>Cybex SironaZ</t>
-  </si>
-  <si>
-    <t>Plus Midnight Blue</t>
-  </si>
-  <si>
-    <t>https://piccolo-detki.ru/detskie-avtokresla/brendi/cybex/cybex-detskoe-avtokreslo-sirona-z-i-size-2019-kategoriya-0-1-midnight-blue-plus/</t>
-  </si>
-  <si>
-    <t>https://lapsi.ru/avtokresla/avtokreslo-0-1-cybex-sirona-z-i-size-3138/174903/</t>
-  </si>
-  <si>
-    <t>38 290</t>
-  </si>
-  <si>
-    <t>https://www.olant-shop.ru/product/14024030/</t>
-  </si>
-  <si>
-    <t>Cybex CloudZ</t>
-  </si>
-  <si>
-    <t>Koi Crystallized</t>
-  </si>
-  <si>
-    <t>https://piccolo-detki.ru/detskie-avtokresla/brendi/cybex/cybex-avtolyulka-0-cloud-z-i-size-2019-koi-crystallized/</t>
-  </si>
-  <si>
-    <t>https://lapsi.ru/avtokresla/avtokreslo-0-cybex-cloud-z-i-size-fe-koi/148209/</t>
-  </si>
-  <si>
-    <t>38 890</t>
-  </si>
-  <si>
-    <t>https://www.olant-shop.ru/product/13027969/</t>
-  </si>
-  <si>
-    <t>Spring blossom Dark</t>
-  </si>
-  <si>
-    <t>https://piccolo-detki.ru/detskie-avtokresla/brendi/cybex/cybex-avtolyulka-0-cloud-z-i-size-2019-spring-blossom-dark/</t>
-  </si>
-  <si>
-    <t>https://lapsi.ru/avtokresla/avtokreslo-0-cybex-cloud-z-i-size-fe-spring/182745/</t>
-  </si>
-  <si>
-    <t>https://www.olant-shop.ru/product/14179845/</t>
-  </si>
-  <si>
-    <t>https://www.akusherstvo.ru/catalog/1076661-cloud-z-i-size-fe-spring/2482645/</t>
-  </si>
-  <si>
-    <t>by Jeremy Scott Wings black</t>
-  </si>
-  <si>
-    <t>https://piccolo-detki.ru/detskie-avtokresla/brendi/cybex/cybex-avtolyulka-0-cloud-z-i-size-2019-by-jeremy-scott-wings-collection-black/</t>
-  </si>
-  <si>
-    <t>https://lapsi.ru/avtokresla/avtokreslo-0-cybex-cloud-z-i-size-fe-js-wings/173454/</t>
-  </si>
-  <si>
-    <t>49 490</t>
-  </si>
-  <si>
-    <t>https://www.olant-shop.ru/product/13558139/</t>
-  </si>
-  <si>
-    <t>https://www.akusherstvo.ru/catalog/1076656-cloud-z-i-size-fe-js/2750217/</t>
-  </si>
-  <si>
-    <t>Cherubs Blue</t>
-  </si>
-  <si>
-    <t>https://piccolo-detki.ru/detskie-avtokresla/brendi/cybex/cybex-avtolyulka-0-cloud-z-i-size-2019-by-jeremy-scott-wings-collection-cherubs-blue/</t>
-  </si>
-  <si>
-    <t>https://www.akusherstvo.ru/catalog/1076656-cloud-z-i-size-fe-js/?picture_id=2482625</t>
-  </si>
-  <si>
-    <t>40 390</t>
-  </si>
-  <si>
-    <t>Autumn Gold</t>
-  </si>
-  <si>
-    <t>https://piccolo-detki.ru/brend/cybex/cybex-avtolyulka-0-cloud-z-i-size-plus-2019-autumn-gold/</t>
-  </si>
-  <si>
-    <t>https://lapsi.ru/avtokresla/avtokreslo-0-cybex-cloud-z-i-size-plus-/167042/</t>
-  </si>
-  <si>
-    <t>34 990</t>
-  </si>
-  <si>
-    <t>https://www.olant-shop.ru/product/14221329/</t>
-  </si>
-  <si>
-    <t>https://www.akusherstvo.ru/catalog/716612-cloud-z-i-size-plus/1702027/</t>
-  </si>
-  <si>
-    <t>31 491</t>
-  </si>
-  <si>
-    <t>GO10</t>
-  </si>
-  <si>
-    <t>Nautical Blue</t>
-  </si>
-  <si>
-    <t>https://piccolo-detki.ru/brend/cybex/cybex-avtolyulka-0-cloud-z-i-size-plus-nautical-blue/</t>
-  </si>
-  <si>
-    <t>https://lapsi.ru/avtokresla/avtokreslo-0-cybex-cloud-z-i-size-plus-/184696/</t>
-  </si>
-  <si>
-    <t>https://www.olant-shop.ru/product/14221331/</t>
-  </si>
-  <si>
-    <t>Oribel стульчик</t>
-  </si>
-  <si>
-    <t>фисташковый</t>
-  </si>
-  <si>
-    <t>https://piccolo-detki.ru/novorozhdennyj-kupit/stulchiki-dlya-kormleniya/stulchik-shezlong-dlya-kormleniya-oribel-cocoon-delicious-pistachio-macaron-fistashkovyy/</t>
-  </si>
-  <si>
-    <t>https://lapsi.ru/detskaya_komnata/stulchik-kokon-oribel-oribel-dlya-kormleniya-grifelnyy-or203-90006/68573/</t>
-  </si>
-  <si>
-    <t>18 500</t>
-  </si>
-  <si>
-    <t>https://www.olant-shop.ru/product/10944091/</t>
-  </si>
-  <si>
-    <t>https://www.akusherstvo.ru/catalog/486651-stulchik-dlya-kormleniya-oribel-cocoon/1020686/</t>
-  </si>
-  <si>
-    <t>голубой</t>
-  </si>
-  <si>
-    <t>https://piccolo-detki.ru/novorozhdennyj-kupit/stulchiki-dlya-kormleniya/stulchik-shezlong-dlya-kormleniya-oribel-cocoon-delicious-blue-raspberry-marshmallow-goluboy/</t>
-  </si>
-  <si>
-    <t>https://lapsi.ru/detskaya_komnata/stulchik-kokon-oribel-oribel-dlya-kormleniya-grifelnyy-or203-90006/68575/</t>
-  </si>
-  <si>
-    <t>16 650</t>
-  </si>
-  <si>
-    <t>https://www.olant-shop.ru/product/10943903/</t>
-  </si>
-  <si>
-    <t>https://www.akusherstvo.ru/catalog/486651-stulchik-dlya-kormleniya-oribel-cocoon/1020721/</t>
-  </si>
-  <si>
-    <t>Nuovita Unico стульчик</t>
-  </si>
-  <si>
-    <t>Lilla</t>
-  </si>
-  <si>
-    <t>https://piccolo-detki.ru/brend/nuovita/nuovita-unico-stulchik-shezlong-kacheli-dlya-kormleniya-lila-sirenevyy/</t>
-  </si>
-  <si>
-    <t>https://www.akusherstvo.ru/catalog/273430-unico/466195/</t>
-  </si>
-  <si>
-    <t>18 489</t>
-  </si>
-  <si>
-    <t>Moca</t>
-  </si>
-  <si>
-    <t>https://piccolo-detki.ru/brend/nuovita/nuovita-unico-stulchik-shezlong-kacheli-dlya-kormleniya-moca-pesochnyy/</t>
-  </si>
-  <si>
-    <t>https://www.akusherstvo.ru/catalog/273430-unico/466177/</t>
-  </si>
-  <si>
-    <t>Arancione</t>
-  </si>
-  <si>
-    <t>https://piccolo-detki.ru/novorozhdennyj-kupit/stulchiki-dlya-kormleniya/nuovita-unico-stulchik-shezlong-kacheli-dlya-kormleniya-arancione-oranzhevyy/</t>
-  </si>
-  <si>
-    <t>https://www.akusherstvo.ru/catalog/273430-unico/466180/</t>
-  </si>
-  <si>
-    <t>16 769</t>
-  </si>
-  <si>
-    <t>Природа</t>
-  </si>
-  <si>
-    <t>https://piccolo-detki.ru/brend/nuovita/nuovita-unico-leggero-stulchik-shezlong-kacheli-dlya-kormleniya-natura-priroda/</t>
-  </si>
-  <si>
-    <t>https://www.akusherstvo.ru/catalog/374819-unico-leggero/748064/</t>
-  </si>
-  <si>
-    <t>20 799</t>
-  </si>
-  <si>
-    <t>Сердце</t>
-  </si>
-  <si>
-    <t>https://piccolo-detki.ru/brend/nuovita/nuovita-unico-leggero-stulchik-shezlong-kacheli-dlya-kormleniya-cuore-serdce/</t>
-  </si>
-  <si>
-    <t>https://www.akusherstvo.ru/catalog/374819-unico-leggero/748044/</t>
-  </si>
-  <si>
-    <t>16 219</t>
-  </si>
-  <si>
-    <t>PegPerego Tatamia стульчик</t>
-  </si>
-  <si>
-    <t>Fragola</t>
-  </si>
-  <si>
-    <t>https://piccolo-detki.ru/novorozhdennyj-kupit/stulchiki-dlya-kormleniya/tatamia-stulchik-dlya-kormleniya-fragola/</t>
-  </si>
-  <si>
-    <t>https://lapsi.ru/detskaya_komnata/stulchik-dlya-kopmleniya-peg-perego-tatamia-follow-me/103256/</t>
-  </si>
-  <si>
-    <t>26 900</t>
-  </si>
-  <si>
-    <t>https://www.akusherstvo.ru/catalog/630181-stulchik-dlya-kormleniya-peg-perego-tatamia-follow-me/1384609/</t>
-  </si>
-  <si>
-    <t>22 410</t>
-  </si>
-  <si>
-    <t>Wonder Grey</t>
-  </si>
-  <si>
-    <t>https://piccolo-detki.ru/brend/peg-perego/stulchik-dlya-kormleniya-peg-perego-tatamia-follow-me-wonder-grey/</t>
-  </si>
-  <si>
-    <t>https://lapsi.ru/detskaya_komnata/stulchik-dlya-kopmleniya-peg-perego-tatamia-follow-me/189975/</t>
-  </si>
-  <si>
-    <t>28 650</t>
-  </si>
-  <si>
-    <t>25 650</t>
+    <t>https://piccolo-detki.ru/o-nas/</t>
   </si>
 </sst>
 </file>
@@ -2002,8 +559,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE1002"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2013,39 +570,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="23" t="s">
-        <v>1</v>
-      </c>
+      <c r="A1" s="1"/>
+      <c r="B1" s="23"/>
       <c r="C1" s="24"/>
       <c r="D1" s="25"/>
-      <c r="E1" s="26" t="s">
-        <v>2</v>
-      </c>
+      <c r="E1" s="26"/>
       <c r="F1" s="27"/>
       <c r="G1" s="27"/>
       <c r="H1" s="28"/>
-      <c r="I1" s="26" t="s">
-        <v>3</v>
-      </c>
+      <c r="I1" s="26"/>
       <c r="J1" s="27"/>
       <c r="K1" s="27"/>
       <c r="L1" s="28"/>
-      <c r="M1" s="26" t="s">
-        <v>4</v>
-      </c>
+      <c r="M1" s="26"/>
       <c r="N1" s="27"/>
       <c r="O1" s="27"/>
       <c r="P1" s="28"/>
-      <c r="Q1" s="26" t="s">
-        <v>5</v>
-      </c>
+      <c r="Q1" s="26"/>
       <c r="R1" s="28"/>
-      <c r="S1" s="2" t="s">
-        <v>6</v>
-      </c>
+      <c r="S1" s="2"/>
       <c r="T1" s="1"/>
       <c r="U1" s="1"/>
       <c r="V1" s="1"/>
@@ -2060,63 +603,25 @@
       <c r="AE1" s="1"/>
     </row>
     <row r="2" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="S2" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1"/>
       <c r="T2" s="1"/>
       <c r="U2" s="1"/>
       <c r="V2" s="1"/>
@@ -2131,15 +636,9 @@
       <c r="AE2" s="1"/>
     </row>
     <row r="3" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>16</v>
-      </c>
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
       <c r="F3" s="5"/>
@@ -2153,12 +652,8 @@
       <c r="N3" s="5"/>
       <c r="O3" s="5"/>
       <c r="P3" s="5"/>
-      <c r="Q3" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="R3" s="5" t="s">
-        <v>18</v>
-      </c>
+      <c r="Q3" s="7"/>
+      <c r="R3" s="5"/>
       <c r="S3" s="1"/>
       <c r="T3" s="1"/>
       <c r="U3" s="1"/>
@@ -2174,18 +669,10 @@
       <c r="AE3" s="1"/>
     </row>
     <row r="4" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>22</v>
-      </c>
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="8"/>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
@@ -2198,12 +685,8 @@
       <c r="N4" s="5"/>
       <c r="O4" s="5"/>
       <c r="P4" s="5"/>
-      <c r="Q4" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="R4" s="8" t="s">
-        <v>22</v>
-      </c>
+      <c r="Q4" s="7"/>
+      <c r="R4" s="8"/>
       <c r="S4" s="1"/>
       <c r="T4" s="1"/>
       <c r="U4" s="1"/>
@@ -2220,15 +703,11 @@
     </row>
     <row r="5" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
-      <c r="B5" s="1" t="s">
-        <v>24</v>
+      <c r="B5" s="1"/>
+      <c r="C5" s="9" t="s">
+        <v>0</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>26</v>
-      </c>
+      <c r="D5" s="8"/>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
@@ -2241,12 +720,8 @@
       <c r="N5" s="5"/>
       <c r="O5" s="5"/>
       <c r="P5" s="5"/>
-      <c r="Q5" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="R5" s="8" t="s">
-        <v>26</v>
-      </c>
+      <c r="Q5" s="7"/>
+      <c r="R5" s="8"/>
       <c r="S5" s="1"/>
       <c r="T5" s="1"/>
       <c r="U5" s="1"/>
@@ -2263,15 +738,9 @@
     </row>
     <row r="6" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
-      <c r="B6" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>30</v>
-      </c>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="8"/>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
@@ -2284,12 +753,8 @@
       <c r="N6" s="5"/>
       <c r="O6" s="5"/>
       <c r="P6" s="5"/>
-      <c r="Q6" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="R6" s="8" t="s">
-        <v>30</v>
-      </c>
+      <c r="Q6" s="7"/>
+      <c r="R6" s="8"/>
       <c r="S6" s="1"/>
       <c r="T6" s="1"/>
       <c r="U6" s="1"/>
@@ -2306,15 +771,9 @@
     </row>
     <row r="7" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
-      <c r="B7" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>34</v>
-      </c>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="8"/>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
@@ -2327,12 +786,8 @@
       <c r="N7" s="5"/>
       <c r="O7" s="5"/>
       <c r="P7" s="5"/>
-      <c r="Q7" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="R7" s="8" t="s">
-        <v>34</v>
-      </c>
+      <c r="Q7" s="7"/>
+      <c r="R7" s="8"/>
       <c r="S7" s="1"/>
       <c r="T7" s="1"/>
       <c r="U7" s="1"/>
@@ -2348,18 +803,10 @@
       <c r="AE7" s="1"/>
     </row>
     <row r="8" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>39</v>
-      </c>
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="8"/>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
@@ -2372,12 +819,8 @@
       <c r="N8" s="5"/>
       <c r="O8" s="5"/>
       <c r="P8" s="5"/>
-      <c r="Q8" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="R8" s="8" t="s">
-        <v>39</v>
-      </c>
+      <c r="Q8" s="7"/>
+      <c r="R8" s="8"/>
       <c r="S8" s="1"/>
       <c r="T8" s="1"/>
       <c r="U8" s="1"/>
@@ -2394,15 +837,9 @@
     </row>
     <row r="9" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
-      <c r="B9" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>39</v>
-      </c>
+      <c r="B9" s="1"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="8"/>
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
@@ -2415,12 +852,8 @@
       <c r="N9" s="5"/>
       <c r="O9" s="5"/>
       <c r="P9" s="5"/>
-      <c r="Q9" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="R9" s="8" t="s">
-        <v>39</v>
-      </c>
+      <c r="Q9" s="7"/>
+      <c r="R9" s="8"/>
       <c r="S9" s="1"/>
       <c r="T9" s="1"/>
       <c r="U9" s="1"/>
@@ -2437,15 +870,9 @@
     </row>
     <row r="10" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
-      <c r="B10" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>39</v>
-      </c>
+      <c r="B10" s="1"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="8"/>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
       <c r="G10" s="5"/>
@@ -2458,12 +885,8 @@
       <c r="N10" s="5"/>
       <c r="O10" s="5"/>
       <c r="P10" s="5"/>
-      <c r="Q10" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="R10" s="8" t="s">
-        <v>39</v>
-      </c>
+      <c r="Q10" s="7"/>
+      <c r="R10" s="8"/>
       <c r="S10" s="1"/>
       <c r="T10" s="1"/>
       <c r="U10" s="1"/>
@@ -2479,13 +902,9 @@
       <c r="AE10" s="1"/>
     </row>
     <row r="11" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
-        <v>46</v>
-      </c>
+      <c r="A11" s="1"/>
       <c r="B11" s="1"/>
-      <c r="C11" s="9" t="s">
-        <v>47</v>
-      </c>
+      <c r="C11" s="9"/>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
@@ -2499,13 +918,9 @@
       <c r="N11" s="5"/>
       <c r="O11" s="5"/>
       <c r="P11" s="5"/>
-      <c r="Q11" s="10" t="s">
-        <v>48</v>
-      </c>
+      <c r="Q11" s="10"/>
       <c r="R11" s="5"/>
-      <c r="S11" s="5" t="s">
-        <v>49</v>
-      </c>
+      <c r="S11" s="5"/>
       <c r="T11" s="1"/>
       <c r="U11" s="1"/>
       <c r="V11" s="1"/>
@@ -2520,13 +935,9 @@
       <c r="AE11" s="1"/>
     </row>
     <row r="12" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
-        <v>50</v>
-      </c>
+      <c r="A12" s="1"/>
       <c r="B12" s="1"/>
-      <c r="C12" s="9" t="s">
-        <v>51</v>
-      </c>
+      <c r="C12" s="9"/>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
@@ -2540,9 +951,7 @@
       <c r="N12" s="5"/>
       <c r="O12" s="5"/>
       <c r="P12" s="5"/>
-      <c r="Q12" s="10" t="s">
-        <v>48</v>
-      </c>
+      <c r="Q12" s="10"/>
       <c r="R12" s="5"/>
       <c r="S12" s="5"/>
       <c r="T12" s="1"/>
@@ -2575,9 +984,7 @@
       <c r="N13" s="5"/>
       <c r="O13" s="5"/>
       <c r="P13" s="5"/>
-      <c r="Q13" s="10" t="s">
-        <v>52</v>
-      </c>
+      <c r="Q13" s="10"/>
       <c r="R13" s="5"/>
       <c r="S13" s="5"/>
       <c r="T13" s="1"/>
@@ -2610,9 +1017,7 @@
       <c r="N14" s="5"/>
       <c r="O14" s="5"/>
       <c r="P14" s="5"/>
-      <c r="Q14" s="10" t="s">
-        <v>53</v>
-      </c>
+      <c r="Q14" s="10"/>
       <c r="R14" s="5"/>
       <c r="S14" s="5"/>
       <c r="T14" s="1"/>
@@ -2629,18 +1034,10 @@
       <c r="AE14" s="1"/>
     </row>
     <row r="15" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>56</v>
-      </c>
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="8"/>
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
       <c r="G15" s="5"/>
@@ -2653,12 +1050,8 @@
       <c r="N15" s="5"/>
       <c r="O15" s="5"/>
       <c r="P15" s="5"/>
-      <c r="Q15" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="R15" s="8" t="s">
-        <v>56</v>
-      </c>
+      <c r="Q15" s="7"/>
+      <c r="R15" s="8"/>
       <c r="S15" s="1"/>
       <c r="T15" s="1"/>
       <c r="U15" s="1"/>
@@ -2674,18 +1067,10 @@
       <c r="AE15" s="1"/>
     </row>
     <row r="16" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>61</v>
-      </c>
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="8"/>
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
       <c r="G16" s="5"/>
@@ -2698,12 +1083,8 @@
       <c r="N16" s="5"/>
       <c r="O16" s="5"/>
       <c r="P16" s="5"/>
-      <c r="Q16" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="R16" s="8" t="s">
-        <v>61</v>
-      </c>
+      <c r="Q16" s="7"/>
+      <c r="R16" s="8"/>
       <c r="S16" s="1"/>
       <c r="T16" s="1"/>
       <c r="U16" s="1"/>
@@ -2720,15 +1101,9 @@
     </row>
     <row r="17" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
-      <c r="B17" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C17" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>65</v>
-      </c>
+      <c r="B17" s="1"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="8"/>
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>
       <c r="G17" s="5"/>
@@ -2741,12 +1116,8 @@
       <c r="N17" s="5"/>
       <c r="O17" s="5"/>
       <c r="P17" s="5"/>
-      <c r="Q17" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="R17" s="8" t="s">
-        <v>65</v>
-      </c>
+      <c r="Q17" s="7"/>
+      <c r="R17" s="8"/>
       <c r="S17" s="1"/>
       <c r="T17" s="1"/>
       <c r="U17" s="1"/>
@@ -2762,27 +1133,13 @@
       <c r="AE17" s="1"/>
     </row>
     <row r="18" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C18" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="D18" s="11">
-        <v>97900</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="F18" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="G18" s="12" t="s">
-        <v>72</v>
-      </c>
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="12"/>
       <c r="H18" s="5"/>
       <c r="I18" s="6"/>
       <c r="J18" s="6"/>
@@ -2813,12 +1170,8 @@
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
-      <c r="E19" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="F19" s="8" t="s">
-        <v>74</v>
-      </c>
+      <c r="E19" s="7"/>
+      <c r="F19" s="8"/>
       <c r="G19" s="5"/>
       <c r="H19" s="5"/>
       <c r="I19" s="6"/>
@@ -2847,24 +1200,12 @@
     </row>
     <row r="20" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
-      <c r="B20" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="C20" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="D20" s="11">
-        <v>97900</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="F20" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="G20" s="13" t="s">
-        <v>79</v>
-      </c>
+      <c r="B20" s="1"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="13"/>
       <c r="H20" s="5"/>
       <c r="I20" s="6"/>
       <c r="J20" s="6"/>
@@ -2895,12 +1236,8 @@
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
-      <c r="E21" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="F21" s="8" t="s">
-        <v>74</v>
-      </c>
+      <c r="E21" s="7"/>
+      <c r="F21" s="8"/>
       <c r="G21" s="5"/>
       <c r="H21" s="5"/>
       <c r="I21" s="6"/>
@@ -2928,9 +1265,7 @@
       <c r="AE21" s="1"/>
     </row>
     <row r="22" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="1" t="s">
-        <v>81</v>
-      </c>
+      <c r="A22" s="1"/>
       <c r="B22" s="6"/>
       <c r="C22" s="6"/>
       <c r="D22" s="1"/>
@@ -2963,9 +1298,7 @@
       <c r="AE22" s="1"/>
     </row>
     <row r="23" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="1" t="s">
-        <v>82</v>
-      </c>
+      <c r="A23" s="1"/>
       <c r="B23" s="6"/>
       <c r="C23" s="6"/>
       <c r="D23" s="1"/>
@@ -2998,18 +1331,10 @@
       <c r="AE23" s="1"/>
     </row>
     <row r="24" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="C24" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="D24" s="11">
-        <v>78900</v>
-      </c>
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="11"/>
       <c r="E24" s="6"/>
       <c r="F24" s="6"/>
       <c r="G24" s="6"/>
@@ -3040,15 +1365,9 @@
     </row>
     <row r="25" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
-      <c r="B25" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="C25" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="D25" s="11">
-        <v>45600</v>
-      </c>
+      <c r="B25" s="1"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="11"/>
       <c r="E25" s="6"/>
       <c r="F25" s="6"/>
       <c r="G25" s="6"/>
@@ -3078,18 +1397,10 @@
       <c r="AE25" s="1"/>
     </row>
     <row r="26" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="C26" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="D26" s="11">
-        <v>43400</v>
-      </c>
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="11"/>
       <c r="E26" s="6"/>
       <c r="F26" s="6"/>
       <c r="G26" s="6"/>
@@ -3119,18 +1430,10 @@
       <c r="AE26" s="1"/>
     </row>
     <row r="27" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="B27" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="C27" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="D27" s="11">
-        <v>44900</v>
-      </c>
+      <c r="A27" s="1"/>
+      <c r="B27" s="5"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="11"/>
       <c r="E27" s="6"/>
       <c r="F27" s="6"/>
       <c r="G27" s="6"/>
@@ -3161,12 +1464,8 @@
     </row>
     <row r="28" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
-      <c r="B28" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="C28" s="7" t="s">
-        <v>95</v>
-      </c>
+      <c r="B28" s="5"/>
+      <c r="C28" s="7"/>
       <c r="D28" s="1"/>
       <c r="E28" s="6"/>
       <c r="F28" s="6"/>
@@ -3197,18 +1496,10 @@
       <c r="AE28" s="1"/>
     </row>
     <row r="29" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="C29" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="D29" s="8" t="s">
-        <v>99</v>
-      </c>
+      <c r="A29" s="1"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="8"/>
       <c r="E29" s="6"/>
       <c r="F29" s="6"/>
       <c r="G29" s="6"/>
@@ -3217,15 +1508,9 @@
       <c r="J29" s="6"/>
       <c r="K29" s="6"/>
       <c r="L29" s="6"/>
-      <c r="M29" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="N29" s="11">
-        <v>44900</v>
-      </c>
-      <c r="O29" s="8" t="s">
-        <v>99</v>
-      </c>
+      <c r="M29" s="7"/>
+      <c r="N29" s="11"/>
+      <c r="O29" s="8"/>
       <c r="P29" s="5"/>
       <c r="Q29" s="4"/>
       <c r="R29" s="4"/>
@@ -3244,9 +1529,7 @@
       <c r="AE29" s="1"/>
     </row>
     <row r="30" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="1" t="s">
-        <v>101</v>
-      </c>
+      <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="14"/>
@@ -3279,9 +1562,7 @@
       <c r="AE30" s="1"/>
     </row>
     <row r="31" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="1" t="s">
-        <v>102</v>
-      </c>
+      <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="14"/>
@@ -3314,27 +1595,13 @@
       <c r="AE31" s="1"/>
     </row>
     <row r="32" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="C32" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="D32" s="11">
-        <v>52900</v>
-      </c>
-      <c r="E32" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="F32" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="G32" s="8" t="s">
-        <v>107</v>
-      </c>
+      <c r="A32" s="1"/>
+      <c r="B32" s="1"/>
+      <c r="C32" s="7"/>
+      <c r="D32" s="11"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
       <c r="H32" s="5"/>
       <c r="I32" s="6"/>
       <c r="J32" s="6"/>
@@ -3362,24 +1629,12 @@
     </row>
     <row r="33" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="1"/>
-      <c r="B33" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="C33" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="D33" s="11">
-        <v>52900</v>
-      </c>
-      <c r="E33" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="F33" s="13" t="s">
-        <v>99</v>
-      </c>
-      <c r="G33" s="13" t="s">
-        <v>99</v>
-      </c>
+      <c r="B33" s="1"/>
+      <c r="C33" s="7"/>
+      <c r="D33" s="11"/>
+      <c r="E33" s="7"/>
+      <c r="F33" s="13"/>
+      <c r="G33" s="13"/>
       <c r="H33" s="5"/>
       <c r="I33" s="6"/>
       <c r="J33" s="6"/>
@@ -3406,18 +1661,10 @@
       <c r="AE33" s="1"/>
     </row>
     <row r="34" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="C34" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="D34" s="14" t="s">
-        <v>114</v>
-      </c>
+      <c r="A34" s="1"/>
+      <c r="B34" s="1"/>
+      <c r="C34" s="9"/>
+      <c r="D34" s="14"/>
       <c r="E34" s="6"/>
       <c r="F34" s="6"/>
       <c r="G34" s="6"/>
@@ -3447,18 +1694,10 @@
       <c r="AE34" s="1"/>
     </row>
     <row r="35" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="C35" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="D35" s="14" t="s">
-        <v>118</v>
-      </c>
+      <c r="A35" s="1"/>
+      <c r="B35" s="1"/>
+      <c r="C35" s="9"/>
+      <c r="D35" s="14"/>
       <c r="E35" s="6"/>
       <c r="F35" s="6"/>
       <c r="G35" s="6"/>
@@ -3467,15 +1706,9 @@
       <c r="J35" s="6"/>
       <c r="K35" s="6"/>
       <c r="L35" s="6"/>
-      <c r="M35" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="N35" s="11">
-        <v>38430</v>
-      </c>
-      <c r="O35" s="8" t="s">
-        <v>118</v>
-      </c>
+      <c r="M35" s="7"/>
+      <c r="N35" s="11"/>
+      <c r="O35" s="8"/>
       <c r="P35" s="5"/>
       <c r="Q35" s="4"/>
       <c r="R35" s="4"/>
@@ -3495,38 +1728,20 @@
     </row>
     <row r="36" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
-      <c r="B36" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="C36" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="D36" s="14" t="s">
-        <v>118</v>
-      </c>
-      <c r="E36" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="F36" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="G36" s="8" t="s">
-        <v>118</v>
-      </c>
+      <c r="B36" s="1"/>
+      <c r="C36" s="9"/>
+      <c r="D36" s="14"/>
+      <c r="E36" s="7"/>
+      <c r="F36" s="8"/>
+      <c r="G36" s="8"/>
       <c r="H36" s="5"/>
       <c r="I36" s="6"/>
       <c r="J36" s="6"/>
       <c r="K36" s="6"/>
       <c r="L36" s="6"/>
-      <c r="M36" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="N36" s="11">
-        <v>38430</v>
-      </c>
-      <c r="O36" s="8" t="s">
-        <v>118</v>
-      </c>
+      <c r="M36" s="7"/>
+      <c r="N36" s="11"/>
+      <c r="O36" s="8"/>
       <c r="P36" s="5"/>
       <c r="Q36" s="4"/>
       <c r="R36" s="4"/>
@@ -3545,18 +1760,10 @@
       <c r="AE36" s="1"/>
     </row>
     <row r="37" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="C37" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="D37" s="14" t="s">
-        <v>127</v>
-      </c>
+      <c r="A37" s="1"/>
+      <c r="B37" s="1"/>
+      <c r="C37" s="9"/>
+      <c r="D37" s="14"/>
       <c r="E37" s="6"/>
       <c r="F37" s="6"/>
       <c r="G37" s="6"/>
@@ -3565,15 +1772,9 @@
       <c r="J37" s="6"/>
       <c r="K37" s="6"/>
       <c r="L37" s="6"/>
-      <c r="M37" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="N37" s="11">
-        <v>49800</v>
-      </c>
-      <c r="O37" s="8" t="s">
-        <v>127</v>
-      </c>
+      <c r="M37" s="7"/>
+      <c r="N37" s="11"/>
+      <c r="O37" s="8"/>
       <c r="P37" s="5"/>
       <c r="Q37" s="4"/>
       <c r="R37" s="4"/>
@@ -3592,18 +1793,10 @@
       <c r="AE37" s="1"/>
     </row>
     <row r="38" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="C38" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="D38" s="11">
-        <v>51600</v>
-      </c>
+      <c r="A38" s="1"/>
+      <c r="B38" s="1"/>
+      <c r="C38" s="9"/>
+      <c r="D38" s="11"/>
       <c r="E38" s="6"/>
       <c r="F38" s="6"/>
       <c r="G38" s="6"/>
@@ -3612,15 +1805,9 @@
       <c r="J38" s="6"/>
       <c r="K38" s="6"/>
       <c r="L38" s="6"/>
-      <c r="M38" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="N38" s="11">
-        <v>51500</v>
-      </c>
-      <c r="O38" s="8" t="s">
-        <v>133</v>
-      </c>
+      <c r="M38" s="7"/>
+      <c r="N38" s="11"/>
+      <c r="O38" s="8"/>
       <c r="P38" s="5"/>
       <c r="Q38" s="4"/>
       <c r="R38" s="4"/>
@@ -3639,41 +1826,21 @@
       <c r="AE38" s="1"/>
     </row>
     <row r="39" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="C39" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="D39" s="15">
-        <v>44900</v>
-      </c>
-      <c r="E39" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="F39" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="G39" s="8" t="s">
-        <v>138</v>
-      </c>
+      <c r="A39" s="1"/>
+      <c r="B39" s="1"/>
+      <c r="C39" s="9"/>
+      <c r="D39" s="15"/>
+      <c r="E39" s="7"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="8"/>
       <c r="H39" s="5"/>
       <c r="I39" s="6"/>
       <c r="J39" s="6"/>
       <c r="K39" s="6"/>
       <c r="L39" s="6"/>
-      <c r="M39" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="N39" s="11">
-        <v>51600</v>
-      </c>
-      <c r="O39" s="8" t="s">
-        <v>138</v>
-      </c>
+      <c r="M39" s="7"/>
+      <c r="N39" s="11"/>
+      <c r="O39" s="8"/>
       <c r="P39" s="5"/>
       <c r="Q39" s="4"/>
       <c r="R39" s="4"/>
@@ -3693,38 +1860,20 @@
     </row>
     <row r="40" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="1"/>
-      <c r="B40" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="C40" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="D40" s="16">
-        <v>51600</v>
-      </c>
-      <c r="E40" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="F40" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="G40" s="8" t="s">
-        <v>138</v>
-      </c>
+      <c r="B40" s="1"/>
+      <c r="C40" s="9"/>
+      <c r="D40" s="16"/>
+      <c r="E40" s="7"/>
+      <c r="F40" s="8"/>
+      <c r="G40" s="8"/>
       <c r="H40" s="5"/>
       <c r="I40" s="6"/>
       <c r="J40" s="6"/>
       <c r="K40" s="6"/>
       <c r="L40" s="6"/>
-      <c r="M40" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="N40" s="16">
-        <v>51600</v>
-      </c>
-      <c r="O40" s="8" t="s">
-        <v>138</v>
-      </c>
+      <c r="M40" s="7"/>
+      <c r="N40" s="16"/>
+      <c r="O40" s="8"/>
       <c r="P40" s="1"/>
       <c r="Q40" s="4"/>
       <c r="R40" s="4"/>
@@ -3744,38 +1893,20 @@
     </row>
     <row r="41" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="1"/>
-      <c r="B41" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="C41" s="9" t="s">
-        <v>145</v>
-      </c>
-      <c r="D41" s="16">
-        <v>51600</v>
-      </c>
-      <c r="E41" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="F41" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="G41" s="8" t="s">
-        <v>138</v>
-      </c>
+      <c r="B41" s="1"/>
+      <c r="C41" s="9"/>
+      <c r="D41" s="16"/>
+      <c r="E41" s="7"/>
+      <c r="F41" s="8"/>
+      <c r="G41" s="8"/>
       <c r="H41" s="5"/>
       <c r="I41" s="6"/>
       <c r="J41" s="6"/>
       <c r="K41" s="6"/>
       <c r="L41" s="6"/>
-      <c r="M41" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="N41" s="16">
-        <v>51600</v>
-      </c>
-      <c r="O41" s="8" t="s">
-        <v>138</v>
-      </c>
+      <c r="M41" s="7"/>
+      <c r="N41" s="16"/>
+      <c r="O41" s="8"/>
       <c r="P41" s="5"/>
       <c r="Q41" s="4"/>
       <c r="R41" s="4"/>
@@ -3794,18 +1925,10 @@
       <c r="AE41" s="1"/>
     </row>
     <row r="42" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="C42" s="9" t="s">
-        <v>149</v>
-      </c>
-      <c r="D42" s="16">
-        <v>51500</v>
-      </c>
+      <c r="A42" s="3"/>
+      <c r="B42" s="1"/>
+      <c r="C42" s="9"/>
+      <c r="D42" s="16"/>
       <c r="E42" s="6"/>
       <c r="F42" s="6"/>
       <c r="G42" s="6"/>
@@ -3814,15 +1937,9 @@
       <c r="J42" s="6"/>
       <c r="K42" s="6"/>
       <c r="L42" s="6"/>
-      <c r="M42" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="N42" s="16">
-        <v>51500</v>
-      </c>
-      <c r="O42" s="8" t="s">
-        <v>133</v>
-      </c>
+      <c r="M42" s="7"/>
+      <c r="N42" s="16"/>
+      <c r="O42" s="8"/>
       <c r="P42" s="5"/>
       <c r="Q42" s="4"/>
       <c r="R42" s="4"/>
@@ -3841,41 +1958,21 @@
       <c r="AE42" s="1"/>
     </row>
     <row r="43" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="C43" s="9" t="s">
-        <v>153</v>
-      </c>
-      <c r="D43" s="16">
-        <v>22730</v>
-      </c>
-      <c r="E43" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="F43" s="16">
-        <v>22730</v>
-      </c>
-      <c r="G43" s="8" t="s">
-        <v>155</v>
-      </c>
+      <c r="A43" s="1"/>
+      <c r="B43" s="1"/>
+      <c r="C43" s="9"/>
+      <c r="D43" s="16"/>
+      <c r="E43" s="7"/>
+      <c r="F43" s="16"/>
+      <c r="G43" s="8"/>
       <c r="H43" s="5"/>
       <c r="I43" s="6"/>
       <c r="J43" s="6"/>
       <c r="K43" s="6"/>
       <c r="L43" s="6"/>
-      <c r="M43" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="N43" s="16">
-        <v>22730</v>
-      </c>
-      <c r="O43" s="8" t="s">
-        <v>155</v>
-      </c>
+      <c r="M43" s="7"/>
+      <c r="N43" s="16"/>
+      <c r="O43" s="8"/>
       <c r="P43" s="5"/>
       <c r="Q43" s="4"/>
       <c r="R43" s="4"/>
@@ -3894,47 +1991,21 @@
       <c r="AE43" s="1"/>
     </row>
     <row r="44" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="C44" s="9" t="s">
-        <v>159</v>
-      </c>
-      <c r="D44" s="16">
-        <v>52200</v>
-      </c>
-      <c r="E44" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="F44" s="16">
-        <v>52200</v>
-      </c>
-      <c r="G44" s="8" t="s">
-        <v>161</v>
-      </c>
+      <c r="A44" s="1"/>
+      <c r="B44" s="1"/>
+      <c r="C44" s="9"/>
+      <c r="D44" s="16"/>
+      <c r="E44" s="7"/>
+      <c r="F44" s="16"/>
+      <c r="G44" s="8"/>
       <c r="H44" s="5"/>
-      <c r="I44" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="J44" s="16">
-        <v>52200</v>
-      </c>
-      <c r="K44" s="8" t="s">
-        <v>161</v>
-      </c>
+      <c r="I44" s="7"/>
+      <c r="J44" s="16"/>
+      <c r="K44" s="8"/>
       <c r="L44" s="5"/>
-      <c r="M44" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="N44" s="16">
-        <v>52200</v>
-      </c>
-      <c r="O44" s="8" t="s">
-        <v>161</v>
-      </c>
+      <c r="M44" s="7"/>
+      <c r="N44" s="16"/>
+      <c r="O44" s="8"/>
       <c r="P44" s="5"/>
       <c r="Q44" s="4"/>
       <c r="R44" s="4"/>
@@ -3954,44 +2025,20 @@
     </row>
     <row r="45" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="1"/>
-      <c r="B45" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="C45" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="D45" s="16">
-        <v>52200</v>
-      </c>
-      <c r="E45" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="F45" s="16">
-        <v>52200</v>
-      </c>
-      <c r="G45" s="8" t="s">
-        <v>161</v>
-      </c>
+      <c r="B45" s="1"/>
+      <c r="C45" s="9"/>
+      <c r="D45" s="16"/>
+      <c r="E45" s="7"/>
+      <c r="F45" s="16"/>
+      <c r="G45" s="8"/>
       <c r="H45" s="5"/>
-      <c r="I45" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="J45" s="16">
-        <v>52200</v>
-      </c>
-      <c r="K45" s="8" t="s">
-        <v>161</v>
-      </c>
+      <c r="I45" s="7"/>
+      <c r="J45" s="16"/>
+      <c r="K45" s="8"/>
       <c r="L45" s="5"/>
-      <c r="M45" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="N45" s="16">
-        <v>52200</v>
-      </c>
-      <c r="O45" s="8" t="s">
-        <v>161</v>
-      </c>
+      <c r="M45" s="7"/>
+      <c r="N45" s="16"/>
+      <c r="O45" s="8"/>
       <c r="P45" s="5"/>
       <c r="Q45" s="4"/>
       <c r="R45" s="4"/>
@@ -4010,47 +2057,21 @@
       <c r="AE45" s="1"/>
     </row>
     <row r="46" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="C46" s="9" t="s">
-        <v>170</v>
-      </c>
-      <c r="D46" s="16">
-        <v>74200</v>
-      </c>
-      <c r="E46" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="F46" s="16">
-        <v>52200</v>
-      </c>
-      <c r="G46" s="8" t="s">
-        <v>171</v>
-      </c>
+      <c r="A46" s="1"/>
+      <c r="B46" s="1"/>
+      <c r="C46" s="9"/>
+      <c r="D46" s="16"/>
+      <c r="E46" s="7"/>
+      <c r="F46" s="16"/>
+      <c r="G46" s="8"/>
       <c r="H46" s="5"/>
-      <c r="I46" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="J46" s="14" t="s">
-        <v>173</v>
-      </c>
-      <c r="K46" s="14" t="s">
-        <v>173</v>
-      </c>
+      <c r="I46" s="7"/>
+      <c r="J46" s="14"/>
+      <c r="K46" s="14"/>
       <c r="L46" s="5"/>
-      <c r="M46" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="N46" s="16">
-        <v>52200</v>
-      </c>
-      <c r="O46" s="8" t="s">
-        <v>171</v>
-      </c>
+      <c r="M46" s="7"/>
+      <c r="N46" s="16"/>
+      <c r="O46" s="8"/>
       <c r="P46" s="5"/>
       <c r="Q46" s="4"/>
       <c r="R46" s="4"/>
@@ -4073,24 +2094,16 @@
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
-      <c r="E47" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="F47" s="16">
-        <v>22000</v>
-      </c>
+      <c r="E47" s="7"/>
+      <c r="F47" s="16"/>
       <c r="G47" s="5"/>
       <c r="H47" s="5"/>
       <c r="I47" s="5"/>
       <c r="J47" s="1"/>
       <c r="K47" s="5"/>
       <c r="L47" s="5"/>
-      <c r="M47" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="N47" s="16">
-        <v>22000</v>
-      </c>
+      <c r="M47" s="7"/>
+      <c r="N47" s="16"/>
       <c r="O47" s="5"/>
       <c r="P47" s="5"/>
       <c r="Q47" s="4"/>
@@ -4111,34 +2124,16 @@
     </row>
     <row r="48" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="1"/>
-      <c r="B48" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="C48" s="9" t="s">
-        <v>176</v>
-      </c>
-      <c r="D48" s="16">
-        <v>74200</v>
-      </c>
-      <c r="E48" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="F48" s="16">
-        <v>52200</v>
-      </c>
-      <c r="G48" s="8" t="s">
-        <v>171</v>
-      </c>
+      <c r="B48" s="1"/>
+      <c r="C48" s="9"/>
+      <c r="D48" s="16"/>
+      <c r="E48" s="7"/>
+      <c r="F48" s="16"/>
+      <c r="G48" s="8"/>
       <c r="H48" s="5"/>
-      <c r="I48" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="J48" s="14" t="s">
-        <v>173</v>
-      </c>
-      <c r="K48" s="5" t="s">
-        <v>18</v>
-      </c>
+      <c r="I48" s="7"/>
+      <c r="J48" s="14"/>
+      <c r="K48" s="5"/>
       <c r="L48" s="5"/>
       <c r="M48" s="6"/>
       <c r="N48" s="6"/>
@@ -4165,12 +2160,8 @@
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
-      <c r="E49" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="F49" s="16">
-        <v>22000</v>
-      </c>
+      <c r="E49" s="7"/>
+      <c r="F49" s="16"/>
       <c r="G49" s="5"/>
       <c r="H49" s="5"/>
       <c r="I49" s="5"/>
@@ -4198,47 +2189,21 @@
       <c r="AE49" s="1"/>
     </row>
     <row r="50" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="C50" s="9" t="s">
-        <v>181</v>
-      </c>
-      <c r="D50" s="16">
-        <v>80000</v>
-      </c>
-      <c r="E50" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="F50" s="16">
-        <v>80000</v>
-      </c>
-      <c r="G50" s="8" t="s">
-        <v>173</v>
-      </c>
+      <c r="A50" s="1"/>
+      <c r="B50" s="1"/>
+      <c r="C50" s="9"/>
+      <c r="D50" s="16"/>
+      <c r="E50" s="7"/>
+      <c r="F50" s="16"/>
+      <c r="G50" s="8"/>
       <c r="H50" s="5"/>
-      <c r="I50" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="J50" s="16">
-        <v>80000</v>
-      </c>
-      <c r="K50" s="8" t="s">
-        <v>173</v>
-      </c>
+      <c r="I50" s="7"/>
+      <c r="J50" s="16"/>
+      <c r="K50" s="8"/>
       <c r="L50" s="5"/>
-      <c r="M50" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="N50" s="16">
-        <v>80000</v>
-      </c>
-      <c r="O50" s="8" t="s">
-        <v>173</v>
-      </c>
+      <c r="M50" s="7"/>
+      <c r="N50" s="16"/>
+      <c r="O50" s="8"/>
       <c r="P50" s="5"/>
       <c r="Q50" s="4"/>
       <c r="R50" s="4"/>
@@ -4258,28 +2223,16 @@
     </row>
     <row r="51" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="1"/>
-      <c r="B51" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="C51" s="9" t="s">
-        <v>186</v>
-      </c>
-      <c r="D51" s="16">
-        <v>80000</v>
-      </c>
+      <c r="B51" s="1"/>
+      <c r="C51" s="9"/>
+      <c r="D51" s="16"/>
       <c r="E51" s="6"/>
       <c r="F51" s="6"/>
       <c r="G51" s="6"/>
       <c r="H51" s="6"/>
-      <c r="I51" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="J51" s="16">
-        <v>80000</v>
-      </c>
-      <c r="K51" s="5" t="s">
-        <v>18</v>
-      </c>
+      <c r="I51" s="7"/>
+      <c r="J51" s="16"/>
+      <c r="K51" s="5"/>
       <c r="L51" s="5"/>
       <c r="M51" s="6"/>
       <c r="N51" s="6"/>
@@ -4303,44 +2256,20 @@
     </row>
     <row r="52" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="1"/>
-      <c r="B52" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="C52" s="9" t="s">
-        <v>189</v>
-      </c>
-      <c r="D52" s="16">
-        <v>80000</v>
-      </c>
-      <c r="E52" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="F52" s="16">
-        <v>80000</v>
-      </c>
-      <c r="G52" s="8" t="s">
-        <v>173</v>
-      </c>
+      <c r="B52" s="1"/>
+      <c r="C52" s="9"/>
+      <c r="D52" s="16"/>
+      <c r="E52" s="7"/>
+      <c r="F52" s="16"/>
+      <c r="G52" s="8"/>
       <c r="H52" s="5"/>
-      <c r="I52" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="J52" s="16">
-        <v>80000</v>
-      </c>
-      <c r="K52" s="8" t="s">
-        <v>173</v>
-      </c>
+      <c r="I52" s="7"/>
+      <c r="J52" s="16"/>
+      <c r="K52" s="8"/>
       <c r="L52" s="5"/>
-      <c r="M52" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="N52" s="16">
-        <v>80000</v>
-      </c>
-      <c r="O52" s="8" t="s">
-        <v>173</v>
-      </c>
+      <c r="M52" s="7"/>
+      <c r="N52" s="16"/>
+      <c r="O52" s="8"/>
       <c r="P52" s="5"/>
       <c r="Q52" s="4"/>
       <c r="R52" s="4"/>
@@ -4359,37 +2288,17 @@
       <c r="AE52" s="1"/>
     </row>
     <row r="53" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="C53" s="9" t="s">
-        <v>194</v>
-      </c>
-      <c r="D53" s="16">
-        <v>98000</v>
-      </c>
-      <c r="E53" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="F53" s="16">
-        <v>80000</v>
-      </c>
-      <c r="G53" s="8" t="s">
-        <v>195</v>
-      </c>
+      <c r="A53" s="1"/>
+      <c r="B53" s="1"/>
+      <c r="C53" s="9"/>
+      <c r="D53" s="16"/>
+      <c r="E53" s="7"/>
+      <c r="F53" s="16"/>
+      <c r="G53" s="8"/>
       <c r="H53" s="5"/>
-      <c r="I53" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="J53" s="16">
-        <v>80000</v>
-      </c>
-      <c r="K53" s="8" t="s">
-        <v>195</v>
-      </c>
+      <c r="I53" s="7"/>
+      <c r="J53" s="16"/>
+      <c r="K53" s="8"/>
       <c r="L53" s="5"/>
       <c r="M53" s="6"/>
       <c r="N53" s="6"/>
@@ -4416,20 +2325,12 @@
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
-      <c r="E54" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="F54" s="16">
-        <v>18000</v>
-      </c>
+      <c r="E54" s="7"/>
+      <c r="F54" s="16"/>
       <c r="G54" s="5"/>
       <c r="H54" s="5"/>
-      <c r="I54" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="J54" s="16">
-        <v>18000</v>
-      </c>
+      <c r="I54" s="7"/>
+      <c r="J54" s="16"/>
       <c r="K54" s="5"/>
       <c r="L54" s="5"/>
       <c r="M54" s="6"/>
@@ -4454,34 +2355,16 @@
     </row>
     <row r="55" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="1"/>
-      <c r="B55" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="C55" s="9" t="s">
-        <v>198</v>
-      </c>
-      <c r="D55" s="16">
-        <v>98000</v>
-      </c>
-      <c r="E55" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="F55" s="16">
-        <v>80000</v>
-      </c>
-      <c r="G55" s="8" t="s">
-        <v>195</v>
-      </c>
+      <c r="B55" s="1"/>
+      <c r="C55" s="9"/>
+      <c r="D55" s="16"/>
+      <c r="E55" s="7"/>
+      <c r="F55" s="16"/>
+      <c r="G55" s="8"/>
       <c r="H55" s="5"/>
-      <c r="I55" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="J55" s="16">
-        <v>80000</v>
-      </c>
-      <c r="K55" s="8" t="s">
-        <v>195</v>
-      </c>
+      <c r="I55" s="7"/>
+      <c r="J55" s="16"/>
+      <c r="K55" s="8"/>
       <c r="L55" s="5"/>
       <c r="M55" s="6"/>
       <c r="N55" s="6"/>
@@ -4508,20 +2391,12 @@
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
-      <c r="E56" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="F56" s="16">
-        <v>18000</v>
-      </c>
+      <c r="E56" s="7"/>
+      <c r="F56" s="16"/>
       <c r="G56" s="5"/>
       <c r="H56" s="5"/>
-      <c r="I56" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="J56" s="16">
-        <v>18000</v>
-      </c>
+      <c r="I56" s="7"/>
+      <c r="J56" s="16"/>
       <c r="K56" s="5"/>
       <c r="L56" s="5"/>
       <c r="M56" s="6"/>
@@ -4546,24 +2421,12 @@
     </row>
     <row r="57" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="1"/>
-      <c r="B57" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="C57" s="9" t="s">
-        <v>202</v>
-      </c>
-      <c r="D57" s="16">
-        <v>98000</v>
-      </c>
-      <c r="E57" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="F57" s="16">
-        <v>80000</v>
-      </c>
-      <c r="G57" s="8" t="s">
-        <v>195</v>
-      </c>
+      <c r="B57" s="1"/>
+      <c r="C57" s="9"/>
+      <c r="D57" s="16"/>
+      <c r="E57" s="7"/>
+      <c r="F57" s="16"/>
+      <c r="G57" s="8"/>
       <c r="H57" s="5"/>
       <c r="I57" s="6"/>
       <c r="J57" s="6"/>
@@ -4594,12 +2457,8 @@
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
-      <c r="E58" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="F58" s="16">
-        <v>18000</v>
-      </c>
+      <c r="E58" s="7"/>
+      <c r="F58" s="16"/>
       <c r="G58" s="5"/>
       <c r="H58" s="5"/>
       <c r="I58" s="6"/>
@@ -4627,37 +2486,17 @@
       <c r="AE58" s="1"/>
     </row>
     <row r="59" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="C59" s="9" t="s">
-        <v>205</v>
-      </c>
-      <c r="D59" s="16">
-        <v>120000</v>
-      </c>
-      <c r="E59" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="F59" s="16">
-        <v>80000</v>
-      </c>
-      <c r="G59" s="8" t="s">
-        <v>206</v>
-      </c>
+      <c r="A59" s="1"/>
+      <c r="B59" s="1"/>
+      <c r="C59" s="9"/>
+      <c r="D59" s="16"/>
+      <c r="E59" s="7"/>
+      <c r="F59" s="16"/>
+      <c r="G59" s="8"/>
       <c r="H59" s="5"/>
-      <c r="I59" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="J59" s="16">
-        <v>80000</v>
-      </c>
-      <c r="K59" s="8" t="s">
-        <v>206</v>
-      </c>
+      <c r="I59" s="7"/>
+      <c r="J59" s="16"/>
+      <c r="K59" s="8"/>
       <c r="L59" s="5"/>
       <c r="M59" s="6"/>
       <c r="N59" s="6"/>
@@ -4684,20 +2523,12 @@
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
-      <c r="E60" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="F60" s="16">
-        <v>18000</v>
-      </c>
+      <c r="E60" s="7"/>
+      <c r="F60" s="16"/>
       <c r="G60" s="5"/>
       <c r="H60" s="5"/>
-      <c r="I60" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="J60" s="16">
-        <v>18000</v>
-      </c>
+      <c r="I60" s="7"/>
+      <c r="J60" s="16"/>
       <c r="K60" s="5"/>
       <c r="L60" s="5"/>
       <c r="M60" s="6"/>
@@ -4725,20 +2556,12 @@
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
-      <c r="E61" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="F61" s="16">
-        <v>22000</v>
-      </c>
+      <c r="E61" s="7"/>
+      <c r="F61" s="16"/>
       <c r="G61" s="5"/>
       <c r="H61" s="5"/>
-      <c r="I61" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="J61" s="16">
-        <v>22000</v>
-      </c>
+      <c r="I61" s="7"/>
+      <c r="J61" s="16"/>
       <c r="K61" s="5"/>
       <c r="L61" s="5"/>
       <c r="M61" s="6"/>
@@ -4763,34 +2586,16 @@
     </row>
     <row r="62" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="1"/>
-      <c r="B62" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="C62" s="9" t="s">
-        <v>209</v>
-      </c>
-      <c r="D62" s="16">
-        <v>120000</v>
-      </c>
-      <c r="E62" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="F62" s="16">
-        <v>80000</v>
-      </c>
-      <c r="G62" s="8" t="s">
-        <v>206</v>
-      </c>
+      <c r="B62" s="1"/>
+      <c r="C62" s="9"/>
+      <c r="D62" s="16"/>
+      <c r="E62" s="7"/>
+      <c r="F62" s="16"/>
+      <c r="G62" s="8"/>
       <c r="H62" s="5"/>
-      <c r="I62" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="J62" s="16">
-        <v>80000</v>
-      </c>
-      <c r="K62" s="8" t="s">
-        <v>206</v>
-      </c>
+      <c r="I62" s="7"/>
+      <c r="J62" s="16"/>
+      <c r="K62" s="8"/>
       <c r="L62" s="5"/>
       <c r="M62" s="6"/>
       <c r="N62" s="6"/>
@@ -4817,20 +2622,12 @@
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
-      <c r="E63" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="F63" s="16">
-        <v>18000</v>
-      </c>
+      <c r="E63" s="7"/>
+      <c r="F63" s="16"/>
       <c r="G63" s="5"/>
       <c r="H63" s="5"/>
-      <c r="I63" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="J63" s="16">
-        <v>18000</v>
-      </c>
+      <c r="I63" s="7"/>
+      <c r="J63" s="16"/>
       <c r="K63" s="5"/>
       <c r="L63" s="5"/>
       <c r="M63" s="6"/>
@@ -4858,20 +2655,12 @@
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
-      <c r="E64" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="F64" s="16">
-        <v>22000</v>
-      </c>
+      <c r="E64" s="7"/>
+      <c r="F64" s="16"/>
       <c r="G64" s="5"/>
       <c r="H64" s="5"/>
-      <c r="I64" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="J64" s="16">
-        <v>22000</v>
-      </c>
+      <c r="I64" s="7"/>
+      <c r="J64" s="16"/>
       <c r="K64" s="5"/>
       <c r="L64" s="5"/>
       <c r="M64" s="6"/>
@@ -4895,47 +2684,21 @@
       <c r="AE64" s="1"/>
     </row>
     <row r="65" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="B65" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="C65" s="9" t="s">
-        <v>214</v>
-      </c>
-      <c r="D65" s="16">
-        <v>35000</v>
-      </c>
-      <c r="E65" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="F65" s="16">
-        <v>35000</v>
-      </c>
-      <c r="G65" s="8" t="s">
-        <v>216</v>
-      </c>
+      <c r="A65" s="1"/>
+      <c r="B65" s="1"/>
+      <c r="C65" s="9"/>
+      <c r="D65" s="16"/>
+      <c r="E65" s="7"/>
+      <c r="F65" s="16"/>
+      <c r="G65" s="8"/>
       <c r="H65" s="5"/>
-      <c r="I65" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="J65" s="16">
-        <v>35000</v>
-      </c>
-      <c r="K65" s="8" t="s">
-        <v>216</v>
-      </c>
+      <c r="I65" s="7"/>
+      <c r="J65" s="16"/>
+      <c r="K65" s="8"/>
       <c r="L65" s="5"/>
-      <c r="M65" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="N65" s="16">
-        <v>35000</v>
-      </c>
-      <c r="O65" s="8" t="s">
-        <v>216</v>
-      </c>
+      <c r="M65" s="7"/>
+      <c r="N65" s="16"/>
+      <c r="O65" s="8"/>
       <c r="P65" s="5"/>
       <c r="Q65" s="4"/>
       <c r="R65" s="4"/>
@@ -4954,47 +2717,21 @@
       <c r="AE65" s="1"/>
     </row>
     <row r="66" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="B66" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="C66" s="9" t="s">
-        <v>221</v>
-      </c>
-      <c r="D66" s="16">
-        <v>18699</v>
-      </c>
-      <c r="E66" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="F66" s="16">
-        <v>18700</v>
-      </c>
-      <c r="G66" s="8" t="s">
-        <v>223</v>
-      </c>
+      <c r="A66" s="1"/>
+      <c r="B66" s="1"/>
+      <c r="C66" s="9"/>
+      <c r="D66" s="16"/>
+      <c r="E66" s="7"/>
+      <c r="F66" s="16"/>
+      <c r="G66" s="8"/>
       <c r="H66" s="5"/>
-      <c r="I66" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="J66" s="16">
-        <v>18699</v>
-      </c>
-      <c r="K66" s="8" t="s">
-        <v>225</v>
-      </c>
+      <c r="I66" s="7"/>
+      <c r="J66" s="16"/>
+      <c r="K66" s="8"/>
       <c r="L66" s="5"/>
-      <c r="M66" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="N66" s="16">
-        <v>18699</v>
-      </c>
-      <c r="O66" s="8" t="s">
-        <v>225</v>
-      </c>
+      <c r="M66" s="7"/>
+      <c r="N66" s="16"/>
+      <c r="O66" s="8"/>
       <c r="P66" s="5"/>
       <c r="Q66" s="4"/>
       <c r="R66" s="4"/>
@@ -5014,44 +2751,20 @@
     </row>
     <row r="67" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="1"/>
-      <c r="B67" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="C67" s="9" t="s">
-        <v>228</v>
-      </c>
-      <c r="D67" s="16">
-        <v>18699</v>
-      </c>
-      <c r="E67" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="F67" s="16">
-        <v>18700</v>
-      </c>
-      <c r="G67" s="8" t="s">
-        <v>223</v>
-      </c>
+      <c r="B67" s="1"/>
+      <c r="C67" s="9"/>
+      <c r="D67" s="16"/>
+      <c r="E67" s="7"/>
+      <c r="F67" s="16"/>
+      <c r="G67" s="8"/>
       <c r="H67" s="5"/>
-      <c r="I67" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="J67" s="16">
-        <v>18699</v>
-      </c>
-      <c r="K67" s="8" t="s">
-        <v>225</v>
-      </c>
+      <c r="I67" s="7"/>
+      <c r="J67" s="16"/>
+      <c r="K67" s="8"/>
       <c r="L67" s="5"/>
-      <c r="M67" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="N67" s="16">
-        <v>18699</v>
-      </c>
-      <c r="O67" s="8" t="s">
-        <v>225</v>
-      </c>
+      <c r="M67" s="7"/>
+      <c r="N67" s="16"/>
+      <c r="O67" s="8"/>
       <c r="P67" s="5"/>
       <c r="Q67" s="4"/>
       <c r="R67" s="4"/>
@@ -5071,44 +2784,20 @@
     </row>
     <row r="68" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="1"/>
-      <c r="B68" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="C68" s="9" t="s">
-        <v>233</v>
-      </c>
-      <c r="D68" s="16">
-        <v>26299</v>
-      </c>
-      <c r="E68" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="F68" s="16">
-        <v>26300</v>
-      </c>
-      <c r="G68" s="8" t="s">
-        <v>235</v>
-      </c>
+      <c r="B68" s="1"/>
+      <c r="C68" s="9"/>
+      <c r="D68" s="16"/>
+      <c r="E68" s="7"/>
+      <c r="F68" s="16"/>
+      <c r="G68" s="8"/>
       <c r="H68" s="5"/>
-      <c r="I68" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="J68" s="16">
-        <v>26299</v>
-      </c>
-      <c r="K68" s="8" t="s">
-        <v>237</v>
-      </c>
+      <c r="I68" s="7"/>
+      <c r="J68" s="16"/>
+      <c r="K68" s="8"/>
       <c r="L68" s="5"/>
-      <c r="M68" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="N68" s="16">
-        <v>26299</v>
-      </c>
-      <c r="O68" s="8" t="s">
-        <v>237</v>
-      </c>
+      <c r="M68" s="7"/>
+      <c r="N68" s="16"/>
+      <c r="O68" s="8"/>
       <c r="P68" s="5"/>
       <c r="Q68" s="4"/>
       <c r="R68" s="4"/>
@@ -5127,47 +2816,21 @@
       <c r="AE68" s="1"/>
     </row>
     <row r="69" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="B69" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="C69" s="9" t="s">
-        <v>240</v>
-      </c>
-      <c r="D69" s="16">
-        <v>29398</v>
-      </c>
-      <c r="E69" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="F69" s="16">
-        <v>29400</v>
-      </c>
-      <c r="G69" s="16">
-        <v>29400</v>
-      </c>
+      <c r="A69" s="1"/>
+      <c r="B69" s="1"/>
+      <c r="C69" s="9"/>
+      <c r="D69" s="16"/>
+      <c r="E69" s="7"/>
+      <c r="F69" s="16"/>
+      <c r="G69" s="16"/>
       <c r="H69" s="5"/>
-      <c r="I69" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="J69" s="16">
-        <v>29398</v>
-      </c>
-      <c r="K69" s="8" t="s">
-        <v>243</v>
-      </c>
+      <c r="I69" s="7"/>
+      <c r="J69" s="16"/>
+      <c r="K69" s="8"/>
       <c r="L69" s="5"/>
-      <c r="M69" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="N69" s="16">
-        <v>18699</v>
-      </c>
-      <c r="O69" s="8" t="s">
-        <v>243</v>
-      </c>
+      <c r="M69" s="7"/>
+      <c r="N69" s="16"/>
+      <c r="O69" s="8"/>
       <c r="P69" s="5"/>
       <c r="Q69" s="4"/>
       <c r="R69" s="4"/>
@@ -5198,12 +2861,8 @@
       <c r="J70" s="1"/>
       <c r="K70" s="5"/>
       <c r="L70" s="5"/>
-      <c r="M70" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="N70" s="16">
-        <v>10699</v>
-      </c>
+      <c r="M70" s="7"/>
+      <c r="N70" s="16"/>
       <c r="O70" s="5"/>
       <c r="P70" s="5"/>
       <c r="Q70" s="4"/>
@@ -5224,24 +2883,12 @@
     </row>
     <row r="71" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="1"/>
-      <c r="B71" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="C71" s="9" t="s">
-        <v>246</v>
-      </c>
-      <c r="D71" s="16">
-        <v>29398</v>
-      </c>
-      <c r="E71" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="F71" s="16">
-        <v>29400</v>
-      </c>
-      <c r="G71" s="8" t="s">
-        <v>248</v>
-      </c>
+      <c r="B71" s="1"/>
+      <c r="C71" s="9"/>
+      <c r="D71" s="16"/>
+      <c r="E71" s="7"/>
+      <c r="F71" s="16"/>
+      <c r="G71" s="8"/>
       <c r="H71" s="5"/>
       <c r="I71" s="6"/>
       <c r="J71" s="6"/>
@@ -5269,34 +2916,16 @@
     </row>
     <row r="72" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="1"/>
-      <c r="B72" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="C72" s="9" t="s">
-        <v>250</v>
-      </c>
-      <c r="D72" s="16">
-        <v>37298</v>
-      </c>
-      <c r="E72" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="F72" s="16">
-        <v>37300</v>
-      </c>
-      <c r="G72" s="8" t="s">
-        <v>252</v>
-      </c>
+      <c r="B72" s="1"/>
+      <c r="C72" s="9"/>
+      <c r="D72" s="16"/>
+      <c r="E72" s="7"/>
+      <c r="F72" s="16"/>
+      <c r="G72" s="8"/>
       <c r="H72" s="5"/>
-      <c r="I72" s="7" t="s">
-        <v>253</v>
-      </c>
-      <c r="J72" s="16">
-        <v>26299</v>
-      </c>
-      <c r="K72" s="8" t="s">
-        <v>254</v>
-      </c>
+      <c r="I72" s="7"/>
+      <c r="J72" s="16"/>
+      <c r="K72" s="8"/>
       <c r="L72" s="5"/>
       <c r="M72" s="6"/>
       <c r="N72" s="6"/>
@@ -5327,12 +2956,8 @@
       <c r="F73" s="1"/>
       <c r="G73" s="5"/>
       <c r="H73" s="5"/>
-      <c r="I73" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="J73" s="16">
-        <v>10999</v>
-      </c>
+      <c r="I73" s="7"/>
+      <c r="J73" s="16"/>
       <c r="K73" s="5"/>
       <c r="L73" s="5"/>
       <c r="M73" s="6"/>
@@ -5357,28 +2982,16 @@
     </row>
     <row r="74" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="1"/>
-      <c r="B74" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="C74" s="9" t="s">
-        <v>256</v>
-      </c>
-      <c r="D74" s="16">
-        <v>37298</v>
-      </c>
+      <c r="B74" s="1"/>
+      <c r="C74" s="9"/>
+      <c r="D74" s="16"/>
       <c r="E74" s="6"/>
       <c r="F74" s="6"/>
       <c r="G74" s="6"/>
       <c r="H74" s="6"/>
-      <c r="I74" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="J74" s="16">
-        <v>26299</v>
-      </c>
-      <c r="K74" s="8" t="s">
-        <v>254</v>
-      </c>
+      <c r="I74" s="7"/>
+      <c r="J74" s="16"/>
+      <c r="K74" s="8"/>
       <c r="L74" s="5"/>
       <c r="M74" s="6"/>
       <c r="N74" s="6"/>
@@ -5409,12 +3022,8 @@
       <c r="F75" s="6"/>
       <c r="G75" s="6"/>
       <c r="H75" s="6"/>
-      <c r="I75" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="J75" s="16">
-        <v>10999</v>
-      </c>
+      <c r="I75" s="7"/>
+      <c r="J75" s="16"/>
       <c r="K75" s="5"/>
       <c r="L75" s="5"/>
       <c r="M75" s="6"/>
@@ -5438,47 +3047,21 @@
       <c r="AE75" s="1"/>
     </row>
     <row r="76" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="B76" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C76" s="9" t="s">
-        <v>259</v>
-      </c>
-      <c r="D76" s="16">
-        <v>29499</v>
-      </c>
-      <c r="E76" s="7" t="s">
-        <v>260</v>
-      </c>
-      <c r="F76" s="16">
-        <v>29500</v>
-      </c>
-      <c r="G76" s="8" t="s">
-        <v>261</v>
-      </c>
+      <c r="A76" s="1"/>
+      <c r="B76" s="1"/>
+      <c r="C76" s="9"/>
+      <c r="D76" s="16"/>
+      <c r="E76" s="7"/>
+      <c r="F76" s="16"/>
+      <c r="G76" s="8"/>
       <c r="H76" s="5"/>
-      <c r="I76" s="7" t="s">
-        <v>262</v>
-      </c>
-      <c r="J76" s="8" t="s">
-        <v>263</v>
-      </c>
-      <c r="K76" s="8" t="s">
-        <v>263</v>
-      </c>
+      <c r="I76" s="7"/>
+      <c r="J76" s="8"/>
+      <c r="K76" s="8"/>
       <c r="L76" s="5"/>
-      <c r="M76" s="7" t="s">
-        <v>264</v>
-      </c>
-      <c r="N76" s="16">
-        <v>29499</v>
-      </c>
-      <c r="O76" s="8" t="s">
-        <v>263</v>
-      </c>
+      <c r="M76" s="7"/>
+      <c r="N76" s="16"/>
+      <c r="O76" s="8"/>
       <c r="P76" s="5"/>
       <c r="Q76" s="4"/>
       <c r="R76" s="4"/>
@@ -5497,47 +3080,21 @@
       <c r="AE76" s="1"/>
     </row>
     <row r="77" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="B77" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="C77" s="9" t="s">
-        <v>267</v>
-      </c>
-      <c r="D77" s="16">
-        <v>41398</v>
-      </c>
-      <c r="E77" s="7" t="s">
-        <v>268</v>
-      </c>
-      <c r="F77" s="16">
-        <v>42600</v>
-      </c>
-      <c r="G77" s="8" t="s">
-        <v>269</v>
-      </c>
+      <c r="A77" s="1"/>
+      <c r="B77" s="1"/>
+      <c r="C77" s="9"/>
+      <c r="D77" s="16"/>
+      <c r="E77" s="7"/>
+      <c r="F77" s="16"/>
+      <c r="G77" s="8"/>
       <c r="H77" s="5"/>
-      <c r="I77" s="7" t="s">
-        <v>270</v>
-      </c>
-      <c r="J77" s="16">
-        <v>42597</v>
-      </c>
-      <c r="K77" s="16">
-        <v>42597</v>
-      </c>
+      <c r="I77" s="7"/>
+      <c r="J77" s="16"/>
+      <c r="K77" s="16"/>
       <c r="L77" s="5"/>
-      <c r="M77" s="7" t="s">
-        <v>271</v>
-      </c>
-      <c r="N77" s="16">
-        <v>29499</v>
-      </c>
-      <c r="O77" s="8" t="s">
-        <v>272</v>
-      </c>
+      <c r="M77" s="7"/>
+      <c r="N77" s="16"/>
+      <c r="O77" s="8"/>
       <c r="P77" s="5"/>
       <c r="Q77" s="4"/>
       <c r="R77" s="4"/>
@@ -5568,12 +3125,8 @@
       <c r="J78" s="1"/>
       <c r="K78" s="5"/>
       <c r="L78" s="5"/>
-      <c r="M78" s="7" t="s">
-        <v>273</v>
-      </c>
-      <c r="N78" s="16">
-        <v>11899</v>
-      </c>
+      <c r="M78" s="7"/>
+      <c r="N78" s="16"/>
       <c r="O78" s="5"/>
       <c r="P78" s="5"/>
       <c r="Q78" s="4"/>
@@ -5593,47 +3146,21 @@
       <c r="AE78" s="1"/>
     </row>
     <row r="79" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="B79" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="C79" s="9" t="s">
-        <v>276</v>
-      </c>
-      <c r="D79" s="16">
-        <v>37499</v>
-      </c>
-      <c r="E79" s="7" t="s">
-        <v>277</v>
-      </c>
-      <c r="F79" s="16">
-        <v>37500</v>
-      </c>
-      <c r="G79" s="8" t="s">
-        <v>278</v>
-      </c>
+      <c r="A79" s="1"/>
+      <c r="B79" s="1"/>
+      <c r="C79" s="9"/>
+      <c r="D79" s="16"/>
+      <c r="E79" s="7"/>
+      <c r="F79" s="16"/>
+      <c r="G79" s="8"/>
       <c r="H79" s="5"/>
-      <c r="I79" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="J79" s="16">
-        <v>37499</v>
-      </c>
-      <c r="K79" s="8" t="s">
-        <v>280</v>
-      </c>
+      <c r="I79" s="7"/>
+      <c r="J79" s="16"/>
+      <c r="K79" s="8"/>
       <c r="L79" s="5"/>
-      <c r="M79" s="7" t="s">
-        <v>281</v>
-      </c>
-      <c r="N79" s="16">
-        <v>37499</v>
-      </c>
-      <c r="O79" s="8" t="s">
-        <v>280</v>
-      </c>
+      <c r="M79" s="7"/>
+      <c r="N79" s="16"/>
+      <c r="O79" s="8"/>
       <c r="P79" s="5"/>
       <c r="Q79" s="4"/>
       <c r="R79" s="4"/>
@@ -5652,47 +3179,21 @@
       <c r="AE79" s="1"/>
     </row>
     <row r="80" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="B80" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="C80" s="9" t="s">
-        <v>283</v>
-      </c>
-      <c r="D80" s="16">
-        <v>49398</v>
-      </c>
-      <c r="E80" s="7" t="s">
-        <v>284</v>
-      </c>
-      <c r="F80" s="16">
-        <v>50600</v>
-      </c>
-      <c r="G80" s="8" t="s">
-        <v>285</v>
-      </c>
+      <c r="A80" s="1"/>
+      <c r="B80" s="1"/>
+      <c r="C80" s="9"/>
+      <c r="D80" s="16"/>
+      <c r="E80" s="7"/>
+      <c r="F80" s="16"/>
+      <c r="G80" s="8"/>
       <c r="H80" s="5"/>
-      <c r="I80" s="7" t="s">
-        <v>286</v>
-      </c>
-      <c r="J80" s="16">
-        <v>50597</v>
-      </c>
-      <c r="K80" s="8" t="s">
-        <v>287</v>
-      </c>
+      <c r="I80" s="7"/>
+      <c r="J80" s="16"/>
+      <c r="K80" s="8"/>
       <c r="L80" s="5"/>
-      <c r="M80" s="7" t="s">
-        <v>288</v>
-      </c>
-      <c r="N80" s="16">
-        <v>37499</v>
-      </c>
-      <c r="O80" s="8" t="s">
-        <v>289</v>
-      </c>
+      <c r="M80" s="7"/>
+      <c r="N80" s="16"/>
+      <c r="O80" s="8"/>
       <c r="P80" s="5"/>
       <c r="Q80" s="4"/>
       <c r="R80" s="4"/>
@@ -5723,12 +3224,8 @@
       <c r="J81" s="1"/>
       <c r="K81" s="5"/>
       <c r="L81" s="5"/>
-      <c r="M81" s="7" t="s">
-        <v>273</v>
-      </c>
-      <c r="N81" s="16">
-        <v>11899</v>
-      </c>
+      <c r="M81" s="7"/>
+      <c r="N81" s="16"/>
       <c r="O81" s="5"/>
       <c r="P81" s="5"/>
       <c r="Q81" s="4"/>
@@ -5748,47 +3245,21 @@
       <c r="AE81" s="1"/>
     </row>
     <row r="82" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="B82" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="C82" s="9" t="s">
-        <v>292</v>
-      </c>
-      <c r="D82" s="16">
-        <v>34899</v>
-      </c>
-      <c r="E82" s="7" t="s">
-        <v>293</v>
-      </c>
-      <c r="F82" s="16">
-        <v>34900</v>
-      </c>
-      <c r="G82" s="8" t="s">
-        <v>294</v>
-      </c>
+      <c r="A82" s="1"/>
+      <c r="B82" s="1"/>
+      <c r="C82" s="9"/>
+      <c r="D82" s="16"/>
+      <c r="E82" s="7"/>
+      <c r="F82" s="16"/>
+      <c r="G82" s="8"/>
       <c r="H82" s="5"/>
-      <c r="I82" s="7" t="s">
-        <v>295</v>
-      </c>
-      <c r="J82" s="16">
-        <v>34899</v>
-      </c>
-      <c r="K82" s="8" t="s">
-        <v>296</v>
-      </c>
+      <c r="I82" s="7"/>
+      <c r="J82" s="16"/>
+      <c r="K82" s="8"/>
       <c r="L82" s="5"/>
-      <c r="M82" s="7" t="s">
-        <v>297</v>
-      </c>
-      <c r="N82" s="16">
-        <v>34899</v>
-      </c>
-      <c r="O82" s="8" t="s">
-        <v>296</v>
-      </c>
+      <c r="M82" s="7"/>
+      <c r="N82" s="16"/>
+      <c r="O82" s="8"/>
       <c r="P82" s="5"/>
       <c r="Q82" s="4"/>
       <c r="R82" s="4"/>
@@ -5808,15 +3279,9 @@
     </row>
     <row r="83" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A83" s="1"/>
-      <c r="B83" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="C83" s="9" t="s">
-        <v>299</v>
-      </c>
-      <c r="D83" s="16">
-        <v>42299</v>
-      </c>
+      <c r="B83" s="1"/>
+      <c r="C83" s="9"/>
+      <c r="D83" s="16"/>
       <c r="E83" s="6"/>
       <c r="F83" s="6"/>
       <c r="G83" s="6"/>
@@ -5825,15 +3290,9 @@
       <c r="J83" s="6"/>
       <c r="K83" s="6"/>
       <c r="L83" s="6"/>
-      <c r="M83" s="7" t="s">
-        <v>300</v>
-      </c>
-      <c r="N83" s="16">
-        <v>42299</v>
-      </c>
-      <c r="O83" s="8" t="s">
-        <v>301</v>
-      </c>
+      <c r="M83" s="7"/>
+      <c r="N83" s="16"/>
+      <c r="O83" s="8"/>
       <c r="P83" s="5"/>
       <c r="Q83" s="4"/>
       <c r="R83" s="4"/>
@@ -5852,47 +3311,21 @@
       <c r="AE83" s="1"/>
     </row>
     <row r="84" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="B84" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="C84" s="9" t="s">
-        <v>303</v>
-      </c>
-      <c r="D84" s="16">
-        <v>56297</v>
-      </c>
-      <c r="E84" s="7" t="s">
-        <v>304</v>
-      </c>
-      <c r="F84" s="16">
-        <v>57700</v>
-      </c>
-      <c r="G84" s="8" t="s">
-        <v>305</v>
-      </c>
+      <c r="A84" s="1"/>
+      <c r="B84" s="1"/>
+      <c r="C84" s="9"/>
+      <c r="D84" s="16"/>
+      <c r="E84" s="7"/>
+      <c r="F84" s="16"/>
+      <c r="G84" s="8"/>
       <c r="H84" s="5"/>
-      <c r="I84" s="7" t="s">
-        <v>295</v>
-      </c>
-      <c r="J84" s="16">
-        <v>34899</v>
-      </c>
-      <c r="K84" s="8" t="s">
-        <v>306</v>
-      </c>
+      <c r="I84" s="7"/>
+      <c r="J84" s="16"/>
+      <c r="K84" s="8"/>
       <c r="L84" s="5"/>
-      <c r="M84" s="7" t="s">
-        <v>297</v>
-      </c>
-      <c r="N84" s="16">
-        <v>34899</v>
-      </c>
-      <c r="O84" s="8" t="s">
-        <v>306</v>
-      </c>
+      <c r="M84" s="7"/>
+      <c r="N84" s="16"/>
+      <c r="O84" s="8"/>
       <c r="P84" s="5"/>
       <c r="Q84" s="4"/>
       <c r="R84" s="4"/>
@@ -5919,20 +3352,12 @@
       <c r="F85" s="1"/>
       <c r="G85" s="5"/>
       <c r="H85" s="5"/>
-      <c r="I85" s="7" t="s">
-        <v>307</v>
-      </c>
-      <c r="J85" s="16">
-        <v>10699</v>
-      </c>
+      <c r="I85" s="7"/>
+      <c r="J85" s="16"/>
       <c r="K85" s="5"/>
       <c r="L85" s="5"/>
-      <c r="M85" s="7" t="s">
-        <v>308</v>
-      </c>
-      <c r="N85" s="16">
-        <v>10699</v>
-      </c>
+      <c r="M85" s="7"/>
+      <c r="N85" s="16"/>
       <c r="O85" s="5"/>
       <c r="P85" s="5"/>
       <c r="Q85" s="4"/>
@@ -5953,38 +3378,20 @@
     </row>
     <row r="86" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A86" s="1"/>
-      <c r="B86" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="C86" s="9" t="s">
-        <v>310</v>
-      </c>
-      <c r="D86" s="14" t="s">
-        <v>311</v>
-      </c>
-      <c r="E86" s="7" t="s">
-        <v>312</v>
-      </c>
-      <c r="F86" s="16">
-        <v>68500</v>
-      </c>
-      <c r="G86" s="8" t="s">
-        <v>313</v>
-      </c>
+      <c r="B86" s="1"/>
+      <c r="C86" s="9"/>
+      <c r="D86" s="14"/>
+      <c r="E86" s="7"/>
+      <c r="F86" s="16"/>
+      <c r="G86" s="8"/>
       <c r="H86" s="5"/>
       <c r="I86" s="6"/>
       <c r="J86" s="6"/>
       <c r="K86" s="6"/>
       <c r="L86" s="6"/>
-      <c r="M86" s="7" t="s">
-        <v>300</v>
-      </c>
-      <c r="N86" s="16">
-        <v>42299</v>
-      </c>
-      <c r="O86" s="8" t="s">
-        <v>311</v>
-      </c>
+      <c r="M86" s="7"/>
+      <c r="N86" s="16"/>
+      <c r="O86" s="8"/>
       <c r="P86" s="5"/>
       <c r="Q86" s="4"/>
       <c r="R86" s="4"/>
@@ -6005,9 +3412,7 @@
     <row r="87" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A87" s="1"/>
       <c r="B87" s="1"/>
-      <c r="C87" s="9" t="s">
-        <v>314</v>
-      </c>
+      <c r="C87" s="9"/>
       <c r="D87" s="1"/>
       <c r="E87" s="5"/>
       <c r="F87" s="1"/>
@@ -6017,12 +3422,8 @@
       <c r="J87" s="6"/>
       <c r="K87" s="6"/>
       <c r="L87" s="6"/>
-      <c r="M87" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="N87" s="16">
-        <v>11899</v>
-      </c>
+      <c r="M87" s="7"/>
+      <c r="N87" s="16"/>
       <c r="O87" s="5"/>
       <c r="P87" s="5"/>
       <c r="Q87" s="4"/>
@@ -6042,9 +3443,7 @@
       <c r="AE87" s="1"/>
     </row>
     <row r="88" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="3" t="s">
-        <v>316</v>
-      </c>
+      <c r="A88" s="3"/>
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
       <c r="D88" s="1"/>
@@ -6077,47 +3476,21 @@
       <c r="AE88" s="1"/>
     </row>
     <row r="89" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="B89" s="1" t="s">
-        <v>318</v>
-      </c>
-      <c r="C89" s="9" t="s">
-        <v>319</v>
-      </c>
-      <c r="D89" s="16">
-        <v>25900</v>
-      </c>
-      <c r="E89" s="7" t="s">
-        <v>320</v>
-      </c>
-      <c r="F89" s="16">
-        <v>25900</v>
-      </c>
-      <c r="G89" s="8" t="s">
-        <v>74</v>
-      </c>
+      <c r="A89" s="1"/>
+      <c r="B89" s="1"/>
+      <c r="C89" s="9"/>
+      <c r="D89" s="16"/>
+      <c r="E89" s="7"/>
+      <c r="F89" s="16"/>
+      <c r="G89" s="8"/>
       <c r="H89" s="5"/>
-      <c r="I89" s="7" t="s">
-        <v>321</v>
-      </c>
-      <c r="J89" s="16">
-        <v>25900</v>
-      </c>
-      <c r="K89" s="16">
-        <v>25900</v>
-      </c>
+      <c r="I89" s="7"/>
+      <c r="J89" s="16"/>
+      <c r="K89" s="16"/>
       <c r="L89" s="5"/>
-      <c r="M89" s="7" t="s">
-        <v>322</v>
-      </c>
-      <c r="N89" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="O89" s="8" t="s">
-        <v>74</v>
-      </c>
+      <c r="M89" s="7"/>
+      <c r="N89" s="8"/>
+      <c r="O89" s="8"/>
       <c r="P89" s="5"/>
       <c r="Q89" s="4"/>
       <c r="R89" s="4"/>
@@ -6136,45 +3509,21 @@
       <c r="AE89" s="1"/>
     </row>
     <row r="90" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="1" t="s">
-        <v>323</v>
-      </c>
+      <c r="A90" s="1"/>
       <c r="B90" s="1"/>
-      <c r="C90" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="D90" s="16">
-        <v>34200</v>
-      </c>
-      <c r="E90" s="7" t="s">
-        <v>325</v>
-      </c>
-      <c r="F90" s="16">
-        <v>34200</v>
-      </c>
-      <c r="G90" s="8" t="s">
-        <v>326</v>
-      </c>
+      <c r="C90" s="1"/>
+      <c r="D90" s="16"/>
+      <c r="E90" s="7"/>
+      <c r="F90" s="16"/>
+      <c r="G90" s="8"/>
       <c r="H90" s="5"/>
-      <c r="I90" s="7" t="s">
-        <v>327</v>
-      </c>
-      <c r="J90" s="16">
-        <v>34200</v>
-      </c>
-      <c r="K90" s="8" t="s">
-        <v>326</v>
-      </c>
+      <c r="I90" s="7"/>
+      <c r="J90" s="16"/>
+      <c r="K90" s="8"/>
       <c r="L90" s="5"/>
-      <c r="M90" s="7" t="s">
-        <v>328</v>
-      </c>
-      <c r="N90" s="16">
-        <v>34200</v>
-      </c>
-      <c r="O90" s="8" t="s">
-        <v>326</v>
-      </c>
+      <c r="M90" s="7"/>
+      <c r="N90" s="16"/>
+      <c r="O90" s="8"/>
       <c r="P90" s="5"/>
       <c r="Q90" s="4"/>
       <c r="R90" s="4"/>
@@ -6193,39 +3542,21 @@
       <c r="AE90" s="1"/>
     </row>
     <row r="91" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="1" t="s">
-        <v>329</v>
-      </c>
+      <c r="A91" s="1"/>
       <c r="B91" s="1"/>
-      <c r="C91" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="D91" s="16">
-        <v>10725</v>
-      </c>
-      <c r="E91" s="7" t="s">
-        <v>331</v>
-      </c>
-      <c r="F91" s="17">
-        <v>9900</v>
-      </c>
-      <c r="G91" s="13" t="s">
-        <v>332</v>
-      </c>
+      <c r="C91" s="1"/>
+      <c r="D91" s="16"/>
+      <c r="E91" s="7"/>
+      <c r="F91" s="17"/>
+      <c r="G91" s="13"/>
       <c r="H91" s="5"/>
       <c r="I91" s="6"/>
       <c r="J91" s="6"/>
       <c r="K91" s="6"/>
       <c r="L91" s="6"/>
-      <c r="M91" s="7" t="s">
-        <v>333</v>
-      </c>
-      <c r="N91" s="16">
-        <v>10299</v>
-      </c>
-      <c r="O91" s="8" t="s">
-        <v>334</v>
-      </c>
+      <c r="M91" s="7"/>
+      <c r="N91" s="16"/>
+      <c r="O91" s="8"/>
       <c r="P91" s="5"/>
       <c r="Q91" s="4"/>
       <c r="R91" s="4"/>
@@ -6245,24 +3576,12 @@
     </row>
     <row r="92" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A92" s="1"/>
-      <c r="B92" s="1" t="s">
-        <v>335</v>
-      </c>
-      <c r="C92" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="D92" s="16">
-        <v>11500</v>
-      </c>
-      <c r="E92" s="7" t="s">
-        <v>337</v>
-      </c>
-      <c r="F92" s="16">
-        <v>11500</v>
-      </c>
-      <c r="G92" s="8" t="s">
-        <v>338</v>
-      </c>
+      <c r="B92" s="1"/>
+      <c r="C92" s="1"/>
+      <c r="D92" s="16"/>
+      <c r="E92" s="7"/>
+      <c r="F92" s="16"/>
+      <c r="G92" s="8"/>
       <c r="H92" s="5"/>
       <c r="I92" s="6"/>
       <c r="J92" s="6"/>
@@ -6289,47 +3608,21 @@
       <c r="AE92" s="1"/>
     </row>
     <row r="93" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="1" t="s">
-        <v>339</v>
-      </c>
-      <c r="B93" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="C93" s="1" t="s">
-        <v>341</v>
-      </c>
-      <c r="D93" s="16">
-        <v>8900</v>
-      </c>
-      <c r="E93" s="7" t="s">
-        <v>342</v>
-      </c>
-      <c r="F93" s="16">
-        <v>8900</v>
-      </c>
-      <c r="G93" s="16">
-        <v>8900</v>
-      </c>
+      <c r="A93" s="1"/>
+      <c r="B93" s="1"/>
+      <c r="C93" s="1"/>
+      <c r="D93" s="16"/>
+      <c r="E93" s="7"/>
+      <c r="F93" s="16"/>
+      <c r="G93" s="16"/>
       <c r="H93" s="5"/>
-      <c r="I93" s="7" t="s">
-        <v>343</v>
-      </c>
-      <c r="J93" s="16">
-        <v>8900</v>
-      </c>
-      <c r="K93" s="16">
-        <v>8900</v>
-      </c>
+      <c r="I93" s="7"/>
+      <c r="J93" s="16"/>
+      <c r="K93" s="16"/>
       <c r="L93" s="5"/>
-      <c r="M93" s="7" t="s">
-        <v>344</v>
-      </c>
-      <c r="N93" s="16">
-        <v>8900</v>
-      </c>
-      <c r="O93" s="16">
-        <v>8900</v>
-      </c>
+      <c r="M93" s="7"/>
+      <c r="N93" s="16"/>
+      <c r="O93" s="16"/>
       <c r="P93" s="5"/>
       <c r="Q93" s="4"/>
       <c r="R93" s="4"/>
@@ -6349,44 +3642,20 @@
     </row>
     <row r="94" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A94" s="1"/>
-      <c r="B94" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="C94" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="D94" s="14" t="s">
-        <v>347</v>
-      </c>
-      <c r="E94" s="7" t="s">
-        <v>348</v>
-      </c>
-      <c r="F94" s="14" t="s">
-        <v>347</v>
-      </c>
-      <c r="G94" s="14" t="s">
-        <v>347</v>
-      </c>
+      <c r="B94" s="1"/>
+      <c r="C94" s="1"/>
+      <c r="D94" s="14"/>
+      <c r="E94" s="7"/>
+      <c r="F94" s="14"/>
+      <c r="G94" s="14"/>
       <c r="H94" s="5"/>
-      <c r="I94" s="7" t="s">
-        <v>349</v>
-      </c>
-      <c r="J94" s="14" t="s">
-        <v>347</v>
-      </c>
-      <c r="K94" s="14" t="s">
-        <v>347</v>
-      </c>
+      <c r="I94" s="7"/>
+      <c r="J94" s="14"/>
+      <c r="K94" s="14"/>
       <c r="L94" s="5"/>
-      <c r="M94" s="7" t="s">
-        <v>350</v>
-      </c>
-      <c r="N94" s="14" t="s">
-        <v>347</v>
-      </c>
-      <c r="O94" s="14" t="s">
-        <v>347</v>
-      </c>
+      <c r="M94" s="7"/>
+      <c r="N94" s="14"/>
+      <c r="O94" s="14"/>
       <c r="P94" s="5"/>
       <c r="Q94" s="4"/>
       <c r="R94" s="4"/>
@@ -6405,47 +3674,21 @@
       <c r="AE94" s="1"/>
     </row>
     <row r="95" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="B95" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="C95" s="1" t="s">
-        <v>353</v>
-      </c>
-      <c r="D95" s="16">
-        <v>13500</v>
-      </c>
-      <c r="E95" s="7" t="s">
-        <v>354</v>
-      </c>
-      <c r="F95" s="16">
-        <v>13500</v>
-      </c>
-      <c r="G95" s="8" t="s">
-        <v>355</v>
-      </c>
+      <c r="A95" s="1"/>
+      <c r="B95" s="1"/>
+      <c r="C95" s="1"/>
+      <c r="D95" s="16"/>
+      <c r="E95" s="7"/>
+      <c r="F95" s="16"/>
+      <c r="G95" s="8"/>
       <c r="H95" s="5"/>
-      <c r="I95" s="7" t="s">
-        <v>356</v>
-      </c>
-      <c r="J95" s="16">
-        <v>13500</v>
-      </c>
-      <c r="K95" s="8" t="s">
-        <v>355</v>
-      </c>
+      <c r="I95" s="7"/>
+      <c r="J95" s="16"/>
+      <c r="K95" s="8"/>
       <c r="L95" s="5"/>
-      <c r="M95" s="7" t="s">
-        <v>357</v>
-      </c>
-      <c r="N95" s="16">
-        <v>13500</v>
-      </c>
-      <c r="O95" s="8" t="s">
-        <v>355</v>
-      </c>
+      <c r="M95" s="7"/>
+      <c r="N95" s="16"/>
+      <c r="O95" s="8"/>
       <c r="P95" s="5"/>
       <c r="Q95" s="4"/>
       <c r="R95" s="4"/>
@@ -6464,47 +3707,21 @@
       <c r="AE95" s="1"/>
     </row>
     <row r="96" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="1" t="s">
-        <v>358</v>
-      </c>
-      <c r="B96" s="5" t="s">
-        <v>359</v>
-      </c>
-      <c r="C96" s="7" t="s">
-        <v>360</v>
-      </c>
-      <c r="D96" s="16">
-        <v>23900</v>
-      </c>
-      <c r="E96" s="7" t="s">
-        <v>361</v>
-      </c>
-      <c r="F96" s="16">
-        <v>23900</v>
-      </c>
-      <c r="G96" s="8" t="s">
-        <v>362</v>
-      </c>
+      <c r="A96" s="1"/>
+      <c r="B96" s="5"/>
+      <c r="C96" s="7"/>
+      <c r="D96" s="16"/>
+      <c r="E96" s="7"/>
+      <c r="F96" s="16"/>
+      <c r="G96" s="8"/>
       <c r="H96" s="5"/>
-      <c r="I96" s="7" t="s">
-        <v>363</v>
-      </c>
-      <c r="J96" s="16">
-        <v>23900</v>
-      </c>
-      <c r="K96" s="8" t="s">
-        <v>362</v>
-      </c>
+      <c r="I96" s="7"/>
+      <c r="J96" s="16"/>
+      <c r="K96" s="8"/>
       <c r="L96" s="5"/>
-      <c r="M96" s="7" t="s">
-        <v>364</v>
-      </c>
-      <c r="N96" s="16">
-        <v>23900</v>
-      </c>
-      <c r="O96" s="8" t="s">
-        <v>362</v>
-      </c>
+      <c r="M96" s="7"/>
+      <c r="N96" s="16"/>
+      <c r="O96" s="8"/>
       <c r="P96" s="5"/>
       <c r="Q96" s="4"/>
       <c r="R96" s="4"/>
@@ -6524,44 +3741,20 @@
     </row>
     <row r="97" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A97" s="1"/>
-      <c r="B97" s="5" t="s">
-        <v>352</v>
-      </c>
-      <c r="C97" s="7" t="s">
-        <v>365</v>
-      </c>
-      <c r="D97" s="16">
-        <v>19200</v>
-      </c>
-      <c r="E97" s="7" t="s">
-        <v>366</v>
-      </c>
-      <c r="F97" s="16">
-        <v>19200</v>
-      </c>
-      <c r="G97" s="8" t="s">
-        <v>362</v>
-      </c>
+      <c r="B97" s="5"/>
+      <c r="C97" s="7"/>
+      <c r="D97" s="16"/>
+      <c r="E97" s="7"/>
+      <c r="F97" s="16"/>
+      <c r="G97" s="8"/>
       <c r="H97" s="5"/>
-      <c r="I97" s="7" t="s">
-        <v>367</v>
-      </c>
-      <c r="J97" s="16">
-        <v>19200</v>
-      </c>
-      <c r="K97" s="8" t="s">
-        <v>362</v>
-      </c>
+      <c r="I97" s="7"/>
+      <c r="J97" s="16"/>
+      <c r="K97" s="8"/>
       <c r="L97" s="5"/>
-      <c r="M97" s="7" t="s">
-        <v>368</v>
-      </c>
-      <c r="N97" s="16">
-        <v>19200</v>
-      </c>
-      <c r="O97" s="8" t="s">
-        <v>362</v>
-      </c>
+      <c r="M97" s="7"/>
+      <c r="N97" s="16"/>
+      <c r="O97" s="8"/>
       <c r="P97" s="5"/>
       <c r="Q97" s="4"/>
       <c r="R97" s="4"/>
@@ -6580,27 +3773,13 @@
       <c r="AE97" s="1"/>
     </row>
     <row r="98" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="1" t="s">
-        <v>369</v>
-      </c>
-      <c r="B98" s="5" t="s">
-        <v>370</v>
-      </c>
-      <c r="C98" s="7" t="s">
-        <v>371</v>
-      </c>
-      <c r="D98" s="16">
-        <v>21800</v>
-      </c>
-      <c r="E98" s="7" t="s">
-        <v>372</v>
-      </c>
-      <c r="F98" s="16">
-        <v>21800</v>
-      </c>
-      <c r="G98" s="8" t="s">
-        <v>373</v>
-      </c>
+      <c r="A98" s="1"/>
+      <c r="B98" s="5"/>
+      <c r="C98" s="7"/>
+      <c r="D98" s="16"/>
+      <c r="E98" s="7"/>
+      <c r="F98" s="16"/>
+      <c r="G98" s="8"/>
       <c r="H98" s="5"/>
       <c r="I98" s="6"/>
       <c r="J98" s="6"/>
@@ -6628,34 +3807,20 @@
     </row>
     <row r="99" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A99" s="1"/>
-      <c r="B99" s="5" t="s">
-        <v>374</v>
-      </c>
+      <c r="B99" s="5"/>
       <c r="C99" s="18"/>
       <c r="D99" s="1"/>
       <c r="E99" s="18"/>
       <c r="F99" s="1"/>
       <c r="G99" s="5"/>
       <c r="H99" s="5"/>
-      <c r="I99" s="7" t="s">
-        <v>375</v>
-      </c>
-      <c r="J99" s="16">
-        <v>21800</v>
-      </c>
-      <c r="K99" s="8" t="s">
-        <v>373</v>
-      </c>
+      <c r="I99" s="7"/>
+      <c r="J99" s="16"/>
+      <c r="K99" s="8"/>
       <c r="L99" s="5"/>
-      <c r="M99" s="7" t="s">
-        <v>376</v>
-      </c>
-      <c r="N99" s="16">
-        <v>21800</v>
-      </c>
-      <c r="O99" s="8" t="s">
-        <v>373</v>
-      </c>
+      <c r="M99" s="7"/>
+      <c r="N99" s="16"/>
+      <c r="O99" s="8"/>
       <c r="P99" s="5"/>
       <c r="Q99" s="4"/>
       <c r="R99" s="4"/>
@@ -6674,37 +3839,17 @@
       <c r="AE99" s="1"/>
     </row>
     <row r="100" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A100" s="5" t="s">
-        <v>377</v>
-      </c>
-      <c r="B100" s="5" t="s">
-        <v>378</v>
-      </c>
-      <c r="C100" s="7" t="s">
-        <v>379</v>
-      </c>
-      <c r="D100" s="16">
-        <v>18690</v>
-      </c>
-      <c r="E100" s="7" t="s">
-        <v>380</v>
-      </c>
-      <c r="F100" s="16">
-        <v>22690</v>
-      </c>
-      <c r="G100" s="8" t="s">
-        <v>381</v>
-      </c>
+      <c r="A100" s="5"/>
+      <c r="B100" s="5"/>
+      <c r="C100" s="7"/>
+      <c r="D100" s="16"/>
+      <c r="E100" s="7"/>
+      <c r="F100" s="16"/>
+      <c r="G100" s="8"/>
       <c r="H100" s="5"/>
-      <c r="I100" s="7" t="s">
-        <v>382</v>
-      </c>
-      <c r="J100" s="16">
-        <v>18180</v>
-      </c>
-      <c r="K100" s="16">
-        <v>18180</v>
-      </c>
+      <c r="I100" s="7"/>
+      <c r="J100" s="16"/>
+      <c r="K100" s="16"/>
       <c r="L100" s="5"/>
       <c r="M100" s="6"/>
       <c r="N100" s="6"/>
@@ -6728,44 +3873,20 @@
     </row>
     <row r="101" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A101" s="5"/>
-      <c r="B101" s="5" t="s">
-        <v>383</v>
-      </c>
-      <c r="C101" s="7" t="s">
-        <v>384</v>
-      </c>
-      <c r="D101" s="16">
-        <v>22690</v>
-      </c>
-      <c r="E101" s="7" t="s">
-        <v>385</v>
-      </c>
-      <c r="F101" s="16">
-        <v>22690</v>
-      </c>
-      <c r="G101" s="8" t="s">
-        <v>381</v>
-      </c>
+      <c r="B101" s="5"/>
+      <c r="C101" s="7"/>
+      <c r="D101" s="16"/>
+      <c r="E101" s="7"/>
+      <c r="F101" s="16"/>
+      <c r="G101" s="8"/>
       <c r="H101" s="5"/>
-      <c r="I101" s="7" t="s">
-        <v>386</v>
-      </c>
-      <c r="J101" s="17">
-        <v>18180</v>
-      </c>
-      <c r="K101" s="13" t="s">
-        <v>387</v>
-      </c>
+      <c r="I101" s="7"/>
+      <c r="J101" s="17"/>
+      <c r="K101" s="13"/>
       <c r="L101" s="5"/>
-      <c r="M101" s="7" t="s">
-        <v>388</v>
-      </c>
-      <c r="N101" s="13" t="s">
-        <v>389</v>
-      </c>
-      <c r="O101" s="13" t="s">
-        <v>389</v>
-      </c>
+      <c r="M101" s="7"/>
+      <c r="N101" s="13"/>
+      <c r="O101" s="13"/>
       <c r="P101" s="5"/>
       <c r="Q101" s="4"/>
       <c r="R101" s="4"/>
@@ -6785,38 +3906,20 @@
     </row>
     <row r="102" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A102" s="5"/>
-      <c r="B102" s="5" t="s">
-        <v>390</v>
-      </c>
-      <c r="C102" s="7" t="s">
-        <v>391</v>
-      </c>
-      <c r="D102" s="16">
-        <v>18180</v>
-      </c>
-      <c r="E102" s="7" t="s">
-        <v>392</v>
-      </c>
-      <c r="F102" s="16">
-        <v>18180</v>
-      </c>
-      <c r="G102" s="16">
-        <v>18180</v>
-      </c>
+      <c r="B102" s="5"/>
+      <c r="C102" s="7"/>
+      <c r="D102" s="16"/>
+      <c r="E102" s="7"/>
+      <c r="F102" s="16"/>
+      <c r="G102" s="16"/>
       <c r="H102" s="5"/>
       <c r="I102" s="6"/>
       <c r="J102" s="6"/>
       <c r="K102" s="6"/>
       <c r="L102" s="6"/>
-      <c r="M102" s="7" t="s">
-        <v>393</v>
-      </c>
-      <c r="N102" s="16">
-        <v>18180</v>
-      </c>
-      <c r="O102" s="16">
-        <v>18180</v>
-      </c>
+      <c r="M102" s="7"/>
+      <c r="N102" s="16"/>
+      <c r="O102" s="16"/>
       <c r="P102" s="5"/>
       <c r="Q102" s="4"/>
       <c r="R102" s="4"/>
@@ -6835,18 +3938,10 @@
       <c r="AE102" s="1"/>
     </row>
     <row r="103" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A103" s="5" t="s">
-        <v>394</v>
-      </c>
-      <c r="B103" s="5" t="s">
-        <v>395</v>
-      </c>
-      <c r="C103" s="7" t="s">
-        <v>396</v>
-      </c>
-      <c r="D103" s="16">
-        <v>15323</v>
-      </c>
+      <c r="A103" s="5"/>
+      <c r="B103" s="5"/>
+      <c r="C103" s="7"/>
+      <c r="D103" s="16"/>
       <c r="E103" s="6"/>
       <c r="F103" s="6"/>
       <c r="G103" s="6"/>
@@ -6855,15 +3950,9 @@
       <c r="J103" s="6"/>
       <c r="K103" s="6"/>
       <c r="L103" s="6"/>
-      <c r="M103" s="7" t="s">
-        <v>397</v>
-      </c>
-      <c r="N103" s="16">
-        <v>15323</v>
-      </c>
-      <c r="O103" s="16">
-        <v>15323</v>
-      </c>
+      <c r="M103" s="7"/>
+      <c r="N103" s="16"/>
+      <c r="O103" s="16"/>
       <c r="P103" s="5"/>
       <c r="Q103" s="4"/>
       <c r="R103" s="4"/>
@@ -6882,37 +3971,17 @@
       <c r="AE103" s="1"/>
     </row>
     <row r="104" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A104" s="5" t="s">
-        <v>398</v>
-      </c>
-      <c r="B104" s="5" t="s">
-        <v>399</v>
-      </c>
-      <c r="C104" s="7" t="s">
-        <v>400</v>
-      </c>
-      <c r="D104" s="16">
-        <v>38290</v>
-      </c>
-      <c r="E104" s="7" t="s">
-        <v>401</v>
-      </c>
-      <c r="F104" s="16">
-        <v>38290</v>
-      </c>
-      <c r="G104" s="8" t="s">
-        <v>402</v>
-      </c>
+      <c r="A104" s="5"/>
+      <c r="B104" s="5"/>
+      <c r="C104" s="7"/>
+      <c r="D104" s="16"/>
+      <c r="E104" s="7"/>
+      <c r="F104" s="16"/>
+      <c r="G104" s="8"/>
       <c r="H104" s="5"/>
-      <c r="I104" s="7" t="s">
-        <v>403</v>
-      </c>
-      <c r="J104" s="16">
-        <v>38290</v>
-      </c>
-      <c r="K104" s="8" t="s">
-        <v>402</v>
-      </c>
+      <c r="I104" s="7"/>
+      <c r="J104" s="16"/>
+      <c r="K104" s="8"/>
       <c r="L104" s="5"/>
       <c r="M104" s="6"/>
       <c r="N104" s="6"/>
@@ -6935,37 +4004,17 @@
       <c r="AE104" s="1"/>
     </row>
     <row r="105" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A105" s="5" t="s">
-        <v>404</v>
-      </c>
-      <c r="B105" s="5" t="s">
-        <v>405</v>
-      </c>
-      <c r="C105" s="7" t="s">
-        <v>406</v>
-      </c>
-      <c r="D105" s="16">
-        <v>38890</v>
-      </c>
-      <c r="E105" s="7" t="s">
-        <v>407</v>
-      </c>
-      <c r="F105" s="16">
-        <v>38890</v>
-      </c>
-      <c r="G105" s="8" t="s">
-        <v>408</v>
-      </c>
+      <c r="A105" s="5"/>
+      <c r="B105" s="5"/>
+      <c r="C105" s="7"/>
+      <c r="D105" s="16"/>
+      <c r="E105" s="7"/>
+      <c r="F105" s="16"/>
+      <c r="G105" s="8"/>
       <c r="H105" s="5"/>
-      <c r="I105" s="7" t="s">
-        <v>409</v>
-      </c>
-      <c r="J105" s="16">
-        <v>38890</v>
-      </c>
-      <c r="K105" s="5" t="s">
-        <v>18</v>
-      </c>
+      <c r="I105" s="7"/>
+      <c r="J105" s="16"/>
+      <c r="K105" s="5"/>
       <c r="L105" s="5"/>
       <c r="M105" s="6"/>
       <c r="N105" s="6"/>
@@ -6989,44 +4038,20 @@
     </row>
     <row r="106" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A106" s="5"/>
-      <c r="B106" s="5" t="s">
-        <v>410</v>
-      </c>
-      <c r="C106" s="7" t="s">
-        <v>411</v>
-      </c>
-      <c r="D106" s="16">
-        <v>38890</v>
-      </c>
-      <c r="E106" s="7" t="s">
-        <v>412</v>
-      </c>
-      <c r="F106" s="16">
-        <v>38890</v>
-      </c>
-      <c r="G106" s="8" t="s">
-        <v>408</v>
-      </c>
+      <c r="B106" s="5"/>
+      <c r="C106" s="7"/>
+      <c r="D106" s="16"/>
+      <c r="E106" s="7"/>
+      <c r="F106" s="16"/>
+      <c r="G106" s="8"/>
       <c r="H106" s="5"/>
-      <c r="I106" s="7" t="s">
-        <v>413</v>
-      </c>
-      <c r="J106" s="16">
-        <v>38890</v>
-      </c>
-      <c r="K106" s="8" t="s">
-        <v>408</v>
-      </c>
+      <c r="I106" s="7"/>
+      <c r="J106" s="16"/>
+      <c r="K106" s="8"/>
       <c r="L106" s="5"/>
-      <c r="M106" s="7" t="s">
-        <v>414</v>
-      </c>
-      <c r="N106" s="16">
-        <v>38890</v>
-      </c>
-      <c r="O106" s="8" t="s">
-        <v>408</v>
-      </c>
+      <c r="M106" s="7"/>
+      <c r="N106" s="16"/>
+      <c r="O106" s="8"/>
       <c r="P106" s="5"/>
       <c r="Q106" s="4"/>
       <c r="R106" s="4"/>
@@ -7046,44 +4071,20 @@
     </row>
     <row r="107" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A107" s="5"/>
-      <c r="B107" s="5" t="s">
-        <v>415</v>
-      </c>
-      <c r="C107" s="7" t="s">
-        <v>416</v>
-      </c>
-      <c r="D107" s="16">
-        <v>49490</v>
-      </c>
-      <c r="E107" s="7" t="s">
-        <v>417</v>
-      </c>
-      <c r="F107" s="16">
-        <v>49490</v>
-      </c>
-      <c r="G107" s="8" t="s">
-        <v>418</v>
-      </c>
+      <c r="B107" s="5"/>
+      <c r="C107" s="7"/>
+      <c r="D107" s="16"/>
+      <c r="E107" s="7"/>
+      <c r="F107" s="16"/>
+      <c r="G107" s="8"/>
       <c r="H107" s="5"/>
-      <c r="I107" s="7" t="s">
-        <v>419</v>
-      </c>
-      <c r="J107" s="16">
-        <v>49490</v>
-      </c>
-      <c r="K107" s="8" t="s">
-        <v>418</v>
-      </c>
+      <c r="I107" s="7"/>
+      <c r="J107" s="16"/>
+      <c r="K107" s="8"/>
       <c r="L107" s="5"/>
-      <c r="M107" s="9" t="s">
-        <v>420</v>
-      </c>
-      <c r="N107" s="16">
-        <v>49490</v>
-      </c>
-      <c r="O107" s="8" t="s">
-        <v>418</v>
-      </c>
+      <c r="M107" s="9"/>
+      <c r="N107" s="16"/>
+      <c r="O107" s="8"/>
       <c r="P107" s="5"/>
       <c r="Q107" s="4"/>
       <c r="R107" s="4"/>
@@ -7103,15 +4104,9 @@
     </row>
     <row r="108" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A108" s="5"/>
-      <c r="B108" s="5" t="s">
-        <v>421</v>
-      </c>
-      <c r="C108" s="7" t="s">
-        <v>422</v>
-      </c>
-      <c r="D108" s="16">
-        <v>40390</v>
-      </c>
+      <c r="B108" s="5"/>
+      <c r="C108" s="7"/>
+      <c r="D108" s="16"/>
       <c r="E108" s="6"/>
       <c r="F108" s="6"/>
       <c r="G108" s="6"/>
@@ -7120,15 +4115,9 @@
       <c r="J108" s="6"/>
       <c r="K108" s="6"/>
       <c r="L108" s="6"/>
-      <c r="M108" s="9" t="s">
-        <v>423</v>
-      </c>
-      <c r="N108" s="16">
-        <v>40390</v>
-      </c>
-      <c r="O108" s="8" t="s">
-        <v>424</v>
-      </c>
+      <c r="M108" s="9"/>
+      <c r="N108" s="16"/>
+      <c r="O108" s="8"/>
       <c r="P108" s="5"/>
       <c r="Q108" s="4"/>
       <c r="R108" s="4"/>
@@ -7148,47 +4137,21 @@
     </row>
     <row r="109" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A109" s="5"/>
-      <c r="B109" s="5" t="s">
-        <v>425</v>
-      </c>
-      <c r="C109" s="7" t="s">
-        <v>426</v>
-      </c>
-      <c r="D109" s="16">
-        <v>34990</v>
-      </c>
-      <c r="E109" s="7" t="s">
-        <v>427</v>
-      </c>
-      <c r="F109" s="8" t="s">
-        <v>428</v>
-      </c>
-      <c r="G109" s="8" t="s">
-        <v>428</v>
-      </c>
+      <c r="B109" s="5"/>
+      <c r="C109" s="7"/>
+      <c r="D109" s="16"/>
+      <c r="E109" s="7"/>
+      <c r="F109" s="8"/>
+      <c r="G109" s="8"/>
       <c r="H109" s="5"/>
-      <c r="I109" s="7" t="s">
-        <v>429</v>
-      </c>
-      <c r="J109" s="8" t="s">
-        <v>428</v>
-      </c>
-      <c r="K109" s="8" t="s">
-        <v>428</v>
-      </c>
+      <c r="I109" s="7"/>
+      <c r="J109" s="8"/>
+      <c r="K109" s="8"/>
       <c r="L109" s="5"/>
-      <c r="M109" s="9" t="s">
-        <v>430</v>
-      </c>
-      <c r="N109" s="19" t="s">
-        <v>428</v>
-      </c>
-      <c r="O109" s="19" t="s">
-        <v>431</v>
-      </c>
-      <c r="P109" s="20" t="s">
-        <v>432</v>
-      </c>
+      <c r="M109" s="9"/>
+      <c r="N109" s="19"/>
+      <c r="O109" s="19"/>
+      <c r="P109" s="20"/>
       <c r="Q109" s="4"/>
       <c r="R109" s="4"/>
       <c r="S109" s="1"/>
@@ -7207,34 +4170,16 @@
     </row>
     <row r="110" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A110" s="5"/>
-      <c r="B110" s="5" t="s">
-        <v>433</v>
-      </c>
-      <c r="C110" s="7" t="s">
-        <v>434</v>
-      </c>
-      <c r="D110" s="16">
-        <v>34990</v>
-      </c>
-      <c r="E110" s="7" t="s">
-        <v>435</v>
-      </c>
-      <c r="F110" s="8" t="s">
-        <v>428</v>
-      </c>
-      <c r="G110" s="8" t="s">
-        <v>428</v>
-      </c>
+      <c r="B110" s="5"/>
+      <c r="C110" s="7"/>
+      <c r="D110" s="16"/>
+      <c r="E110" s="7"/>
+      <c r="F110" s="8"/>
+      <c r="G110" s="8"/>
       <c r="H110" s="5"/>
-      <c r="I110" s="7" t="s">
-        <v>436</v>
-      </c>
-      <c r="J110" s="8" t="s">
-        <v>428</v>
-      </c>
-      <c r="K110" s="5" t="s">
-        <v>18</v>
-      </c>
+      <c r="I110" s="7"/>
+      <c r="J110" s="8"/>
+      <c r="K110" s="5"/>
       <c r="L110" s="5"/>
       <c r="M110" s="6"/>
       <c r="N110" s="6"/>
@@ -7257,47 +4202,21 @@
       <c r="AE110" s="1"/>
     </row>
     <row r="111" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A111" s="5" t="s">
-        <v>437</v>
-      </c>
-      <c r="B111" s="5" t="s">
-        <v>438</v>
-      </c>
-      <c r="C111" s="7" t="s">
-        <v>439</v>
-      </c>
-      <c r="D111" s="16">
-        <v>18500</v>
-      </c>
-      <c r="E111" s="7" t="s">
-        <v>440</v>
-      </c>
-      <c r="F111" s="8" t="s">
-        <v>441</v>
-      </c>
-      <c r="G111" s="8" t="s">
-        <v>441</v>
-      </c>
+      <c r="A111" s="5"/>
+      <c r="B111" s="5"/>
+      <c r="C111" s="7"/>
+      <c r="D111" s="16"/>
+      <c r="E111" s="7"/>
+      <c r="F111" s="8"/>
+      <c r="G111" s="8"/>
       <c r="H111" s="5"/>
-      <c r="I111" s="7" t="s">
-        <v>442</v>
-      </c>
-      <c r="J111" s="8" t="s">
-        <v>441</v>
-      </c>
-      <c r="K111" s="8" t="s">
-        <v>441</v>
-      </c>
+      <c r="I111" s="7"/>
+      <c r="J111" s="8"/>
+      <c r="K111" s="8"/>
       <c r="L111" s="5"/>
-      <c r="M111" s="7" t="s">
-        <v>443</v>
-      </c>
-      <c r="N111" s="8" t="s">
-        <v>441</v>
-      </c>
-      <c r="O111" s="8" t="s">
-        <v>441</v>
-      </c>
+      <c r="M111" s="7"/>
+      <c r="N111" s="8"/>
+      <c r="O111" s="8"/>
       <c r="P111" s="5"/>
       <c r="Q111" s="4"/>
       <c r="R111" s="4"/>
@@ -7317,44 +4236,20 @@
     </row>
     <row r="112" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A112" s="5"/>
-      <c r="B112" s="5" t="s">
-        <v>444</v>
-      </c>
-      <c r="C112" s="7" t="s">
-        <v>445</v>
-      </c>
-      <c r="D112" s="21">
-        <v>16650</v>
-      </c>
-      <c r="E112" s="7" t="s">
-        <v>446</v>
-      </c>
-      <c r="F112" s="8" t="s">
-        <v>447</v>
-      </c>
-      <c r="G112" s="8" t="s">
-        <v>447</v>
-      </c>
+      <c r="B112" s="5"/>
+      <c r="C112" s="7"/>
+      <c r="D112" s="21"/>
+      <c r="E112" s="7"/>
+      <c r="F112" s="8"/>
+      <c r="G112" s="8"/>
       <c r="H112" s="5"/>
-      <c r="I112" s="7" t="s">
-        <v>448</v>
-      </c>
-      <c r="J112" s="8" t="s">
-        <v>447</v>
-      </c>
-      <c r="K112" s="8" t="s">
-        <v>447</v>
-      </c>
+      <c r="I112" s="7"/>
+      <c r="J112" s="8"/>
+      <c r="K112" s="8"/>
       <c r="L112" s="5"/>
-      <c r="M112" s="7" t="s">
-        <v>449</v>
-      </c>
-      <c r="N112" s="8" t="s">
-        <v>447</v>
-      </c>
-      <c r="O112" s="8" t="s">
-        <v>447</v>
-      </c>
+      <c r="M112" s="7"/>
+      <c r="N112" s="8"/>
+      <c r="O112" s="8"/>
       <c r="P112" s="5"/>
       <c r="Q112" s="4"/>
       <c r="R112" s="4"/>
@@ -7373,18 +4268,10 @@
       <c r="AE112" s="1"/>
     </row>
     <row r="113" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A113" s="5" t="s">
-        <v>450</v>
-      </c>
-      <c r="B113" s="5" t="s">
-        <v>451</v>
-      </c>
-      <c r="C113" s="7" t="s">
-        <v>452</v>
-      </c>
-      <c r="D113" s="16">
-        <v>21499</v>
-      </c>
+      <c r="A113" s="5"/>
+      <c r="B113" s="5"/>
+      <c r="C113" s="7"/>
+      <c r="D113" s="16"/>
       <c r="E113" s="6"/>
       <c r="F113" s="6"/>
       <c r="G113" s="6"/>
@@ -7393,15 +4280,9 @@
       <c r="J113" s="6"/>
       <c r="K113" s="6"/>
       <c r="L113" s="6"/>
-      <c r="M113" s="7" t="s">
-        <v>453</v>
-      </c>
-      <c r="N113" s="13" t="s">
-        <v>454</v>
-      </c>
-      <c r="O113" s="13" t="s">
-        <v>454</v>
-      </c>
+      <c r="M113" s="7"/>
+      <c r="N113" s="13"/>
+      <c r="O113" s="13"/>
       <c r="P113" s="5"/>
       <c r="Q113" s="4"/>
       <c r="R113" s="4"/>
@@ -7421,15 +4302,9 @@
     </row>
     <row r="114" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A114" s="5"/>
-      <c r="B114" s="5" t="s">
-        <v>455</v>
-      </c>
-      <c r="C114" s="7" t="s">
-        <v>456</v>
-      </c>
-      <c r="D114" s="16">
-        <v>21499</v>
-      </c>
+      <c r="B114" s="5"/>
+      <c r="C114" s="7"/>
+      <c r="D114" s="16"/>
       <c r="E114" s="6"/>
       <c r="F114" s="6"/>
       <c r="G114" s="6"/>
@@ -7438,15 +4313,9 @@
       <c r="J114" s="6"/>
       <c r="K114" s="6"/>
       <c r="L114" s="6"/>
-      <c r="M114" s="7" t="s">
-        <v>457</v>
-      </c>
-      <c r="N114" s="13" t="s">
-        <v>454</v>
-      </c>
-      <c r="O114" s="13" t="s">
-        <v>454</v>
-      </c>
+      <c r="M114" s="7"/>
+      <c r="N114" s="13"/>
+      <c r="O114" s="13"/>
       <c r="P114" s="5"/>
       <c r="Q114" s="4"/>
       <c r="R114" s="4"/>
@@ -7466,15 +4335,9 @@
     </row>
     <row r="115" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A115" s="5"/>
-      <c r="B115" s="5" t="s">
-        <v>458</v>
-      </c>
-      <c r="C115" s="7" t="s">
-        <v>459</v>
-      </c>
-      <c r="D115" s="16">
-        <v>21499</v>
-      </c>
+      <c r="B115" s="5"/>
+      <c r="C115" s="7"/>
+      <c r="D115" s="16"/>
       <c r="E115" s="6"/>
       <c r="F115" s="6"/>
       <c r="G115" s="6"/>
@@ -7483,15 +4346,9 @@
       <c r="J115" s="6"/>
       <c r="K115" s="6"/>
       <c r="L115" s="6"/>
-      <c r="M115" s="7" t="s">
-        <v>460</v>
-      </c>
-      <c r="N115" s="13" t="s">
-        <v>461</v>
-      </c>
-      <c r="O115" s="13" t="s">
-        <v>461</v>
-      </c>
+      <c r="M115" s="7"/>
+      <c r="N115" s="13"/>
+      <c r="O115" s="13"/>
       <c r="P115" s="5"/>
       <c r="Q115" s="4"/>
       <c r="R115" s="4"/>
@@ -7511,15 +4368,9 @@
     </row>
     <row r="116" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A116" s="5"/>
-      <c r="B116" s="5" t="s">
-        <v>462</v>
-      </c>
-      <c r="C116" s="7" t="s">
-        <v>463</v>
-      </c>
-      <c r="D116" s="16">
-        <v>20799</v>
-      </c>
+      <c r="B116" s="5"/>
+      <c r="C116" s="7"/>
+      <c r="D116" s="16"/>
       <c r="E116" s="6"/>
       <c r="F116" s="6"/>
       <c r="G116" s="6"/>
@@ -7528,15 +4379,9 @@
       <c r="J116" s="6"/>
       <c r="K116" s="6"/>
       <c r="L116" s="6"/>
-      <c r="M116" s="7" t="s">
-        <v>464</v>
-      </c>
-      <c r="N116" s="8" t="s">
-        <v>465</v>
-      </c>
-      <c r="O116" s="8" t="s">
-        <v>465</v>
-      </c>
+      <c r="M116" s="7"/>
+      <c r="N116" s="8"/>
+      <c r="O116" s="8"/>
       <c r="P116" s="5"/>
       <c r="Q116" s="4"/>
       <c r="R116" s="4"/>
@@ -7556,15 +4401,9 @@
     </row>
     <row r="117" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A117" s="5"/>
-      <c r="B117" s="5" t="s">
-        <v>466</v>
-      </c>
-      <c r="C117" s="7" t="s">
-        <v>467</v>
-      </c>
-      <c r="D117" s="16">
-        <v>20799</v>
-      </c>
+      <c r="B117" s="5"/>
+      <c r="C117" s="7"/>
+      <c r="D117" s="16"/>
       <c r="E117" s="6"/>
       <c r="F117" s="6"/>
       <c r="G117" s="6"/>
@@ -7573,15 +4412,9 @@
       <c r="J117" s="6"/>
       <c r="K117" s="6"/>
       <c r="L117" s="6"/>
-      <c r="M117" s="9" t="s">
-        <v>468</v>
-      </c>
-      <c r="N117" s="13" t="s">
-        <v>469</v>
-      </c>
-      <c r="O117" s="13" t="s">
-        <v>469</v>
-      </c>
+      <c r="M117" s="9"/>
+      <c r="N117" s="13"/>
+      <c r="O117" s="13"/>
       <c r="P117" s="5"/>
       <c r="Q117" s="4"/>
       <c r="R117" s="4"/>
@@ -7600,41 +4433,21 @@
       <c r="AE117" s="1"/>
     </row>
     <row r="118" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A118" s="5" t="s">
-        <v>470</v>
-      </c>
-      <c r="B118" s="5" t="s">
-        <v>471</v>
-      </c>
-      <c r="C118" s="7" t="s">
-        <v>472</v>
-      </c>
-      <c r="D118" s="16">
-        <v>24900</v>
-      </c>
-      <c r="E118" s="7" t="s">
-        <v>473</v>
-      </c>
-      <c r="F118" s="22" t="s">
-        <v>474</v>
-      </c>
-      <c r="G118" s="22" t="s">
-        <v>474</v>
-      </c>
+      <c r="A118" s="5"/>
+      <c r="B118" s="5"/>
+      <c r="C118" s="7"/>
+      <c r="D118" s="16"/>
+      <c r="E118" s="7"/>
+      <c r="F118" s="22"/>
+      <c r="G118" s="22"/>
       <c r="H118" s="5"/>
       <c r="I118" s="6"/>
       <c r="J118" s="6"/>
       <c r="K118" s="6"/>
       <c r="L118" s="6"/>
-      <c r="M118" s="7" t="s">
-        <v>475</v>
-      </c>
-      <c r="N118" s="13" t="s">
-        <v>476</v>
-      </c>
-      <c r="O118" s="13" t="s">
-        <v>476</v>
-      </c>
+      <c r="M118" s="7"/>
+      <c r="N118" s="13"/>
+      <c r="O118" s="13"/>
       <c r="P118" s="5"/>
       <c r="Q118" s="4"/>
       <c r="R118" s="4"/>
@@ -7654,24 +4467,12 @@
     </row>
     <row r="119" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A119" s="1"/>
-      <c r="B119" s="1" t="s">
-        <v>477</v>
-      </c>
-      <c r="C119" s="9" t="s">
-        <v>478</v>
-      </c>
-      <c r="D119" s="16">
-        <v>26400</v>
-      </c>
-      <c r="E119" s="9" t="s">
-        <v>479</v>
-      </c>
-      <c r="F119" s="22" t="s">
-        <v>480</v>
-      </c>
-      <c r="G119" s="22" t="s">
-        <v>481</v>
-      </c>
+      <c r="B119" s="1"/>
+      <c r="C119" s="9"/>
+      <c r="D119" s="16"/>
+      <c r="E119" s="9"/>
+      <c r="F119" s="22"/>
+      <c r="G119" s="22"/>
       <c r="H119" s="1"/>
       <c r="I119" s="6"/>
       <c r="J119" s="6"/>
@@ -36844,285 +33645,8 @@
     <mergeCell ref="M1:P1"/>
     <mergeCell ref="Q1:R1"/>
   </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="E1" r:id="rId1" display="http://lapsi.ru/"/>
-    <hyperlink ref="I1" r:id="rId2" display="http://olant-shop.ru/"/>
-    <hyperlink ref="M1" r:id="rId3" display="http://akusherstvo.ru/"/>
-    <hyperlink ref="Q1" r:id="rId4" display="https://silvercross.ru/"/>
-    <hyperlink ref="Q3" r:id="rId5"/>
-    <hyperlink ref="Q4" r:id="rId6"/>
-    <hyperlink ref="Q5" r:id="rId7"/>
-    <hyperlink ref="Q6" r:id="rId8"/>
-    <hyperlink ref="Q7" r:id="rId9"/>
-    <hyperlink ref="C8" r:id="rId10"/>
-    <hyperlink ref="Q8" r:id="rId11"/>
-    <hyperlink ref="C9" r:id="rId12"/>
-    <hyperlink ref="Q9" r:id="rId13"/>
-    <hyperlink ref="C10" r:id="rId14"/>
-    <hyperlink ref="Q10" r:id="rId15"/>
-    <hyperlink ref="C11" r:id="rId16"/>
-    <hyperlink ref="Q11" r:id="rId17"/>
-    <hyperlink ref="C12" r:id="rId18"/>
-    <hyperlink ref="Q12" r:id="rId19"/>
-    <hyperlink ref="Q13" r:id="rId20"/>
-    <hyperlink ref="Q14" r:id="rId21"/>
-    <hyperlink ref="Q15" r:id="rId22"/>
-    <hyperlink ref="Q16" r:id="rId23"/>
-    <hyperlink ref="C17" r:id="rId24"/>
-    <hyperlink ref="Q17" r:id="rId25"/>
-    <hyperlink ref="C18" r:id="rId26"/>
-    <hyperlink ref="E18" r:id="rId27"/>
-    <hyperlink ref="E19" r:id="rId28"/>
-    <hyperlink ref="C20" r:id="rId29"/>
-    <hyperlink ref="E20" r:id="rId30"/>
-    <hyperlink ref="E21" r:id="rId31"/>
-    <hyperlink ref="C24" r:id="rId32"/>
-    <hyperlink ref="C25" r:id="rId33"/>
-    <hyperlink ref="C26" r:id="rId34"/>
-    <hyperlink ref="C27" r:id="rId35"/>
-    <hyperlink ref="C28" r:id="rId36"/>
-    <hyperlink ref="C29" r:id="rId37"/>
-    <hyperlink ref="M29" r:id="rId38"/>
-    <hyperlink ref="C32" r:id="rId39"/>
-    <hyperlink ref="E32" r:id="rId40"/>
-    <hyperlink ref="C33" r:id="rId41"/>
-    <hyperlink ref="E33" r:id="rId42"/>
-    <hyperlink ref="C34" r:id="rId43"/>
-    <hyperlink ref="C35" r:id="rId44"/>
-    <hyperlink ref="M35" r:id="rId45"/>
-    <hyperlink ref="C36" r:id="rId46"/>
-    <hyperlink ref="E36" r:id="rId47"/>
-    <hyperlink ref="M36" r:id="rId48"/>
-    <hyperlink ref="C37" r:id="rId49"/>
-    <hyperlink ref="M37" r:id="rId50"/>
-    <hyperlink ref="C38" r:id="rId51"/>
-    <hyperlink ref="M38" r:id="rId52"/>
-    <hyperlink ref="C39" r:id="rId53"/>
-    <hyperlink ref="E39" r:id="rId54"/>
-    <hyperlink ref="M39" r:id="rId55"/>
-    <hyperlink ref="C40" r:id="rId56"/>
-    <hyperlink ref="E40" r:id="rId57"/>
-    <hyperlink ref="M40" r:id="rId58"/>
-    <hyperlink ref="C41" r:id="rId59"/>
-    <hyperlink ref="E41" r:id="rId60"/>
-    <hyperlink ref="M41" r:id="rId61"/>
-    <hyperlink ref="C42" r:id="rId62"/>
-    <hyperlink ref="M42" r:id="rId63"/>
-    <hyperlink ref="C43" r:id="rId64"/>
-    <hyperlink ref="E43" r:id="rId65"/>
-    <hyperlink ref="M43" r:id="rId66"/>
-    <hyperlink ref="C44" r:id="rId67"/>
-    <hyperlink ref="E44" r:id="rId68"/>
-    <hyperlink ref="I44" r:id="rId69"/>
-    <hyperlink ref="M44" r:id="rId70"/>
-    <hyperlink ref="C45" r:id="rId71"/>
-    <hyperlink ref="E45" r:id="rId72"/>
-    <hyperlink ref="I45" r:id="rId73"/>
-    <hyperlink ref="M45" r:id="rId74"/>
-    <hyperlink ref="C46" r:id="rId75"/>
-    <hyperlink ref="E46" r:id="rId76"/>
-    <hyperlink ref="I46" r:id="rId77"/>
-    <hyperlink ref="M46" r:id="rId78"/>
-    <hyperlink ref="E47" r:id="rId79"/>
-    <hyperlink ref="M47" r:id="rId80"/>
-    <hyperlink ref="C48" r:id="rId81"/>
-    <hyperlink ref="E48" r:id="rId82"/>
-    <hyperlink ref="I48" r:id="rId83"/>
-    <hyperlink ref="E49" r:id="rId84"/>
-    <hyperlink ref="C50" r:id="rId85"/>
-    <hyperlink ref="E50" r:id="rId86"/>
-    <hyperlink ref="I50" r:id="rId87"/>
-    <hyperlink ref="M50" r:id="rId88"/>
-    <hyperlink ref="C51" r:id="rId89"/>
-    <hyperlink ref="I51" r:id="rId90"/>
-    <hyperlink ref="C52" r:id="rId91"/>
-    <hyperlink ref="E52" r:id="rId92"/>
-    <hyperlink ref="I52" r:id="rId93"/>
-    <hyperlink ref="M52" r:id="rId94"/>
-    <hyperlink ref="C53" r:id="rId95"/>
-    <hyperlink ref="E53" r:id="rId96"/>
-    <hyperlink ref="I53" r:id="rId97"/>
-    <hyperlink ref="E54" r:id="rId98"/>
-    <hyperlink ref="I54" r:id="rId99"/>
-    <hyperlink ref="C55" r:id="rId100"/>
-    <hyperlink ref="E55" r:id="rId101"/>
-    <hyperlink ref="I55" r:id="rId102"/>
-    <hyperlink ref="E56" r:id="rId103"/>
-    <hyperlink ref="I56" r:id="rId104"/>
-    <hyperlink ref="C57" r:id="rId105"/>
-    <hyperlink ref="E57" r:id="rId106"/>
-    <hyperlink ref="E58" r:id="rId107"/>
-    <hyperlink ref="C59" r:id="rId108"/>
-    <hyperlink ref="E59" r:id="rId109"/>
-    <hyperlink ref="I59" r:id="rId110"/>
-    <hyperlink ref="E60" r:id="rId111"/>
-    <hyperlink ref="I60" r:id="rId112"/>
-    <hyperlink ref="E61" r:id="rId113"/>
-    <hyperlink ref="I61" r:id="rId114"/>
-    <hyperlink ref="C62" r:id="rId115"/>
-    <hyperlink ref="E62" r:id="rId116"/>
-    <hyperlink ref="I62" r:id="rId117"/>
-    <hyperlink ref="E63" r:id="rId118"/>
-    <hyperlink ref="I63" r:id="rId119"/>
-    <hyperlink ref="E64" r:id="rId120"/>
-    <hyperlink ref="I64" r:id="rId121"/>
-    <hyperlink ref="C65" r:id="rId122"/>
-    <hyperlink ref="E65" r:id="rId123"/>
-    <hyperlink ref="I65" r:id="rId124"/>
-    <hyperlink ref="M65" r:id="rId125"/>
-    <hyperlink ref="C66" r:id="rId126"/>
-    <hyperlink ref="E66" r:id="rId127"/>
-    <hyperlink ref="I66" r:id="rId128"/>
-    <hyperlink ref="M66" r:id="rId129"/>
-    <hyperlink ref="C67" r:id="rId130"/>
-    <hyperlink ref="E67" r:id="rId131"/>
-    <hyperlink ref="I67" r:id="rId132"/>
-    <hyperlink ref="M67" r:id="rId133"/>
-    <hyperlink ref="C68" r:id="rId134"/>
-    <hyperlink ref="E68" r:id="rId135"/>
-    <hyperlink ref="I68" r:id="rId136"/>
-    <hyperlink ref="M68" r:id="rId137"/>
-    <hyperlink ref="C69" r:id="rId138"/>
-    <hyperlink ref="E69" r:id="rId139"/>
-    <hyperlink ref="I69" r:id="rId140"/>
-    <hyperlink ref="M69" r:id="rId141"/>
-    <hyperlink ref="M70" r:id="rId142"/>
-    <hyperlink ref="C71" r:id="rId143"/>
-    <hyperlink ref="E71" r:id="rId144"/>
-    <hyperlink ref="C72" r:id="rId145"/>
-    <hyperlink ref="E72" r:id="rId146"/>
-    <hyperlink ref="I72" r:id="rId147"/>
-    <hyperlink ref="I73" r:id="rId148"/>
-    <hyperlink ref="C74" r:id="rId149"/>
-    <hyperlink ref="I74" r:id="rId150"/>
-    <hyperlink ref="I75" r:id="rId151"/>
-    <hyperlink ref="C76" r:id="rId152"/>
-    <hyperlink ref="E76" r:id="rId153"/>
-    <hyperlink ref="I76" r:id="rId154"/>
-    <hyperlink ref="M76" r:id="rId155"/>
-    <hyperlink ref="C77" r:id="rId156"/>
-    <hyperlink ref="E77" r:id="rId157"/>
-    <hyperlink ref="I77" r:id="rId158"/>
-    <hyperlink ref="M77" r:id="rId159"/>
-    <hyperlink ref="M78" r:id="rId160"/>
-    <hyperlink ref="C79" r:id="rId161"/>
-    <hyperlink ref="E79" r:id="rId162"/>
-    <hyperlink ref="I79" r:id="rId163"/>
-    <hyperlink ref="M79" r:id="rId164"/>
-    <hyperlink ref="C80" r:id="rId165"/>
-    <hyperlink ref="E80" r:id="rId166"/>
-    <hyperlink ref="I80" r:id="rId167"/>
-    <hyperlink ref="M80" r:id="rId168"/>
-    <hyperlink ref="M81" r:id="rId169"/>
-    <hyperlink ref="C82" r:id="rId170"/>
-    <hyperlink ref="E82" r:id="rId171"/>
-    <hyperlink ref="I82" r:id="rId172"/>
-    <hyperlink ref="M82" r:id="rId173"/>
-    <hyperlink ref="C83" r:id="rId174"/>
-    <hyperlink ref="M83" r:id="rId175"/>
-    <hyperlink ref="C84" r:id="rId176"/>
-    <hyperlink ref="E84" r:id="rId177"/>
-    <hyperlink ref="I84" r:id="rId178"/>
-    <hyperlink ref="M84" r:id="rId179"/>
-    <hyperlink ref="I85" r:id="rId180"/>
-    <hyperlink ref="M85" r:id="rId181"/>
-    <hyperlink ref="C86" r:id="rId182"/>
-    <hyperlink ref="E86" r:id="rId183"/>
-    <hyperlink ref="M86" r:id="rId184"/>
-    <hyperlink ref="C87" r:id="rId185"/>
-    <hyperlink ref="M87" r:id="rId186"/>
-    <hyperlink ref="C89" r:id="rId187"/>
-    <hyperlink ref="E89" r:id="rId188"/>
-    <hyperlink ref="I89" r:id="rId189"/>
-    <hyperlink ref="M89" r:id="rId190"/>
-    <hyperlink ref="E90" r:id="rId191"/>
-    <hyperlink ref="I90" r:id="rId192"/>
-    <hyperlink ref="M90" r:id="rId193"/>
-    <hyperlink ref="E91" r:id="rId194"/>
-    <hyperlink ref="M91" r:id="rId195"/>
-    <hyperlink ref="E92" r:id="rId196"/>
-    <hyperlink ref="E93" r:id="rId197"/>
-    <hyperlink ref="I93" r:id="rId198"/>
-    <hyperlink ref="M93" r:id="rId199"/>
-    <hyperlink ref="E94" r:id="rId200"/>
-    <hyperlink ref="I94" r:id="rId201"/>
-    <hyperlink ref="M94" r:id="rId202"/>
-    <hyperlink ref="E95" r:id="rId203"/>
-    <hyperlink ref="I95" r:id="rId204"/>
-    <hyperlink ref="M95" r:id="rId205"/>
-    <hyperlink ref="C96" r:id="rId206"/>
-    <hyperlink ref="E96" r:id="rId207"/>
-    <hyperlink ref="I96" r:id="rId208"/>
-    <hyperlink ref="M96" r:id="rId209"/>
-    <hyperlink ref="C97" r:id="rId210"/>
-    <hyperlink ref="E97" r:id="rId211"/>
-    <hyperlink ref="I97" r:id="rId212"/>
-    <hyperlink ref="M97" r:id="rId213"/>
-    <hyperlink ref="C98" r:id="rId214"/>
-    <hyperlink ref="E98" r:id="rId215" display="https://lapsi.ru/avtokresla/avtokreslo-1-maxi-cosi-pearl/103505/"/>
-    <hyperlink ref="I99" r:id="rId216"/>
-    <hyperlink ref="M99" r:id="rId217"/>
-    <hyperlink ref="C100" r:id="rId218"/>
-    <hyperlink ref="E100" r:id="rId219"/>
-    <hyperlink ref="I100" r:id="rId220"/>
-    <hyperlink ref="C101" r:id="rId221"/>
-    <hyperlink ref="E101" r:id="rId222"/>
-    <hyperlink ref="I101" r:id="rId223"/>
-    <hyperlink ref="M101" r:id="rId224"/>
-    <hyperlink ref="C102" r:id="rId225"/>
-    <hyperlink ref="E102" r:id="rId226"/>
-    <hyperlink ref="M102" r:id="rId227"/>
-    <hyperlink ref="C103" r:id="rId228"/>
-    <hyperlink ref="M103" r:id="rId229"/>
-    <hyperlink ref="C104" r:id="rId230"/>
-    <hyperlink ref="E104" r:id="rId231"/>
-    <hyperlink ref="I104" r:id="rId232"/>
-    <hyperlink ref="C105" r:id="rId233"/>
-    <hyperlink ref="E105" r:id="rId234"/>
-    <hyperlink ref="I105" r:id="rId235"/>
-    <hyperlink ref="C106" r:id="rId236"/>
-    <hyperlink ref="E106" r:id="rId237"/>
-    <hyperlink ref="I106" r:id="rId238"/>
-    <hyperlink ref="M106" r:id="rId239"/>
-    <hyperlink ref="C107" r:id="rId240"/>
-    <hyperlink ref="E107" r:id="rId241"/>
-    <hyperlink ref="I107" r:id="rId242"/>
-    <hyperlink ref="M107" r:id="rId243"/>
-    <hyperlink ref="C108" r:id="rId244"/>
-    <hyperlink ref="M108" r:id="rId245"/>
-    <hyperlink ref="C109" r:id="rId246"/>
-    <hyperlink ref="E109" r:id="rId247"/>
-    <hyperlink ref="I109" r:id="rId248"/>
-    <hyperlink ref="M109" r:id="rId249"/>
-    <hyperlink ref="C110" r:id="rId250"/>
-    <hyperlink ref="E110" r:id="rId251"/>
-    <hyperlink ref="I110" r:id="rId252"/>
-    <hyperlink ref="C111" r:id="rId253"/>
-    <hyperlink ref="E111" r:id="rId254"/>
-    <hyperlink ref="I111" r:id="rId255"/>
-    <hyperlink ref="M111" r:id="rId256"/>
-    <hyperlink ref="C112" r:id="rId257"/>
-    <hyperlink ref="E112" r:id="rId258"/>
-    <hyperlink ref="I112" r:id="rId259"/>
-    <hyperlink ref="M112" r:id="rId260"/>
-    <hyperlink ref="C113" r:id="rId261"/>
-    <hyperlink ref="M113" r:id="rId262"/>
-    <hyperlink ref="C114" r:id="rId263"/>
-    <hyperlink ref="M114" r:id="rId264"/>
-    <hyperlink ref="C115" r:id="rId265"/>
-    <hyperlink ref="M115" r:id="rId266"/>
-    <hyperlink ref="C116" r:id="rId267"/>
-    <hyperlink ref="M116" r:id="rId268"/>
-    <hyperlink ref="C117" r:id="rId269"/>
-    <hyperlink ref="M117" r:id="rId270"/>
-    <hyperlink ref="C118" r:id="rId271"/>
-    <hyperlink ref="E118" r:id="rId272"/>
-    <hyperlink ref="M118" r:id="rId273"/>
-    <hyperlink ref="C119" r:id="rId274"/>
-    <hyperlink ref="E119" r:id="rId275"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId276"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
